--- a/Smt 2/General/Money/Kredit.xlsx
+++ b/Smt 2/General/Money/Kredit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G4CE-PC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Smt 2\General\Money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D203B4-9EED-48D6-BF9B-023E69E39203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4DF7AA-FF1A-4974-A323-A80514AF1C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C11EF8D-10A9-4189-A3D0-2D1743085405}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="45">
   <si>
     <t>Debt</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Total value 3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0F5DC6-4488-4008-9090-B58F78C5CAA4}">
   <dimension ref="B2:AD256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,14 +604,14 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>10000000</v>
+        <v>990000</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2">
         <f>(4000000*12/(7.25%+12))*D5</f>
-        <v>143135224.68419963</v>
+        <v>47711741.561399877</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
@@ -654,14 +657,14 @@
       </c>
       <c r="D4" s="2">
         <f>D5/12</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2">
         <f>4000000*12*D5/(7.25%*D5+12)</f>
-        <v>118275154.00410677</v>
+        <v>44755244.755244754</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
@@ -709,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -753,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>2.4E-2</v>
+        <v>3.9960000000000002E-2</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -793,7 +796,7 @@
       </c>
       <c r="D7" s="1">
         <f>D6/12</f>
-        <v>2E-3</v>
+        <v>3.3300000000000001E-3</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -849,7 +852,7 @@
       </c>
       <c r="D9" s="4">
         <f>SUM(E17:E256)</f>
-        <v>10369999.999999994</v>
+        <v>1011428.5499999999</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -897,7 +900,7 @@
       </c>
       <c r="D10" s="4">
         <f>SUM(D17:D256)</f>
-        <v>369999.99999999988</v>
+        <v>21428.55</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -945,7 +948,7 @@
       </c>
       <c r="D11" s="6">
         <f>D10/D3</f>
-        <v>3.6999999999999991E-2</v>
+        <v>2.1644999999999998E-2</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -993,7 +996,7 @@
       </c>
       <c r="D12" s="6">
         <f>(1+(D10/D3))^(1/(D5/12))-1</f>
-        <v>1.2184273858861783E-2</v>
+        <v>2.1644999999999914E-2</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1175,7 +1178,7 @@
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="F16" s="3">
         <f>D3</f>
-        <v>10000000</v>
+        <v>990000</v>
       </c>
       <c r="G16" s="4"/>
       <c r="M16" s="3">
@@ -1204,19 +1207,19 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ref="C17:C80" si="0">IF(B17&gt;$D$5,0,F16/($D$5+1-B17))</f>
-        <v>277777.77777777775</v>
+        <v>82500</v>
       </c>
       <c r="D17" s="4">
         <f>IF($D$7*F16&lt;0,0,$D$7*F16)</f>
-        <v>20000</v>
+        <v>3296.7000000000003</v>
       </c>
       <c r="E17" s="4">
         <f>D17+C17</f>
-        <v>297777.77777777775</v>
+        <v>85796.7</v>
       </c>
       <c r="F17" s="4">
         <f>F16-C17</f>
-        <v>9722222.222222222</v>
+        <v>907500</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17">
@@ -1294,19 +1297,19 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777775</v>
+        <v>82500</v>
       </c>
       <c r="D18" s="4">
         <f>IF($D$7*F17&lt;0,0,$D$7*F17)</f>
-        <v>19444.444444444445</v>
+        <v>3021.9749999999999</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ref="E18:E52" si="5">D18+C18</f>
-        <v>297222.22222222219</v>
+        <v>85521.975000000006</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ref="F18:F52" si="6">F17-C18</f>
-        <v>9444444.444444444</v>
+        <v>825000</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18">
@@ -1384,19 +1387,19 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777775</v>
+        <v>82500</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D17:D80" si="15">IF($D$7*F18&lt;0,0,$D$7*F18)</f>
-        <v>18888.888888888887</v>
+        <f t="shared" ref="D19:D80" si="15">IF($D$7*F18&lt;0,0,$D$7*F18)</f>
+        <v>2747.25</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="5"/>
-        <v>296666.66666666663</v>
+        <v>85247.25</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="6"/>
-        <v>9166666.666666666</v>
+        <v>742500</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19">
@@ -1474,19 +1477,19 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777775</v>
+        <v>82500</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="15"/>
-        <v>18333.333333333332</v>
+        <v>2472.5250000000001</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="5"/>
-        <v>296111.11111111107</v>
+        <v>84972.524999999994</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="6"/>
-        <v>8888888.8888888881</v>
+        <v>660000</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20">
@@ -1564,19 +1567,19 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777775</v>
+        <v>82500</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="15"/>
-        <v>17777.777777777777</v>
+        <v>2197.8000000000002</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="5"/>
-        <v>295555.5555555555</v>
+        <v>84697.8</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="6"/>
-        <v>8611111.1111111101</v>
+        <v>577500</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21">
@@ -1654,19 +1657,19 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777775</v>
+        <v>82500</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="15"/>
-        <v>17222.222222222219</v>
+        <v>1923.075</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="5"/>
-        <v>295000</v>
+        <v>84423.074999999997</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="6"/>
-        <v>8333333.3333333321</v>
+        <v>495000</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22">
@@ -1740,19 +1743,19 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777775</v>
+        <v>82500</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="15"/>
-        <v>16666.666666666664</v>
+        <v>1648.3500000000001</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="5"/>
-        <v>294444.44444444444</v>
+        <v>84148.35</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="6"/>
-        <v>8055555.5555555541</v>
+        <v>412500</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23">
@@ -1826,19 +1829,19 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777775</v>
+        <v>82500</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="15"/>
-        <v>16111.111111111108</v>
+        <v>1373.625</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="5"/>
-        <v>293888.88888888888</v>
+        <v>83873.625</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="6"/>
-        <v>7777777.7777777761</v>
+        <v>330000</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24">
@@ -1912,19 +1915,19 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777769</v>
+        <v>82500</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="15"/>
-        <v>15555.555555555553</v>
+        <v>1098.9000000000001</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="5"/>
-        <v>293333.33333333326</v>
+        <v>83598.899999999994</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="6"/>
-        <v>7499999.9999999981</v>
+        <v>247500</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25">
@@ -1998,19 +2001,19 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777769</v>
+        <v>82500</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="15"/>
-        <v>14999.999999999996</v>
+        <v>824.17500000000007</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="5"/>
-        <v>292777.77777777769</v>
+        <v>83324.175000000003</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="6"/>
-        <v>7222222.2222222202</v>
+        <v>165000</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26">
@@ -2084,19 +2087,19 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777769</v>
+        <v>82500</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="15"/>
-        <v>14444.44444444444</v>
+        <v>549.45000000000005</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="5"/>
-        <v>292222.22222222213</v>
+        <v>83049.45</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="6"/>
-        <v>6944444.4444444422</v>
+        <v>82500</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27">
@@ -2170,19 +2173,19 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777769</v>
+        <v>82500</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="15"/>
-        <v>13888.888888888885</v>
+        <v>274.72500000000002</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="5"/>
-        <v>291666.66666666657</v>
+        <v>82774.725000000006</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="6"/>
-        <v>6666666.6666666642</v>
+        <v>0</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28">
@@ -2256,19 +2259,19 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777769</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="15"/>
-        <v>13333.333333333328</v>
+        <v>0</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="5"/>
-        <v>291111.11111111101</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="6"/>
-        <v>6388888.8888888862</v>
+        <v>0</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29">
@@ -2342,19 +2345,19 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777764</v>
+        <v>0</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="15"/>
-        <v>12777.777777777772</v>
+        <v>0</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="5"/>
-        <v>290555.55555555539</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="6"/>
-        <v>6111111.1111111082</v>
+        <v>0</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30">
@@ -2428,19 +2431,19 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777764</v>
+        <v>0</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="15"/>
-        <v>12222.222222222217</v>
+        <v>0</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="5"/>
-        <v>289999.99999999983</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="6"/>
-        <v>5833333.3333333302</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31">
@@ -2514,19 +2517,19 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777764</v>
+        <v>0</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="15"/>
-        <v>11666.666666666661</v>
+        <v>0</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="5"/>
-        <v>289444.44444444432</v>
+        <v>0</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="6"/>
-        <v>5555555.5555555522</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32">
@@ -2600,19 +2603,19 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777764</v>
+        <v>0</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="15"/>
-        <v>11111.111111111104</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="5"/>
-        <v>288888.88888888876</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="6"/>
-        <v>5277777.7777777743</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33">
@@ -2686,19 +2689,19 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777758</v>
+        <v>0</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="15"/>
-        <v>10555.555555555549</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="5"/>
-        <v>288333.33333333314</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="6"/>
-        <v>4999999.9999999963</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34">
@@ -2772,19 +2775,19 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777758</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="15"/>
-        <v>9999.9999999999927</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="5"/>
-        <v>287777.77777777758</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="6"/>
-        <v>4722222.2222222183</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35">
@@ -2858,19 +2861,19 @@
       </c>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="15"/>
-        <v>9444.4444444444362</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="5"/>
-        <v>287222.22222222196</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="6"/>
-        <v>4444444.4444444403</v>
+        <v>0</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36">
@@ -2944,19 +2947,19 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="15"/>
-        <v>8888.8888888888814</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="5"/>
-        <v>286666.6666666664</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="6"/>
-        <v>4166666.6666666628</v>
+        <v>0</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37">
@@ -3030,19 +3033,19 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="15"/>
-        <v>8333.3333333333248</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="5"/>
-        <v>286111.11111111083</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="6"/>
-        <v>3888888.8888888853</v>
+        <v>0</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38">
@@ -3116,19 +3119,19 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="15"/>
-        <v>7777.777777777771</v>
+        <v>0</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="5"/>
-        <v>285555.55555555527</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="6"/>
-        <v>3611111.1111111077</v>
+        <v>0</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39">
@@ -3202,19 +3205,19 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="15"/>
-        <v>7222.2222222222154</v>
+        <v>0</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="5"/>
-        <v>284999.99999999971</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="6"/>
-        <v>3333333.3333333302</v>
+        <v>0</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40">
@@ -3288,19 +3291,19 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="15"/>
-        <v>6666.6666666666606</v>
+        <v>0</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="5"/>
-        <v>284444.44444444421</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" si="6"/>
-        <v>3055555.5555555527</v>
+        <v>0</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41">
@@ -3374,19 +3377,19 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="15"/>
-        <v>6111.1111111111059</v>
+        <v>0</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="5"/>
-        <v>283888.88888888864</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" si="6"/>
-        <v>2777777.7777777752</v>
+        <v>0</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42">
@@ -3460,19 +3463,19 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="15"/>
-        <v>5555.5555555555502</v>
+        <v>0</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="5"/>
-        <v>283333.33333333308</v>
+        <v>0</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" si="6"/>
-        <v>2499999.9999999977</v>
+        <v>0</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43">
@@ -3546,19 +3549,19 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="15"/>
-        <v>4999.9999999999955</v>
+        <v>0</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="5"/>
-        <v>282777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="6"/>
-        <v>2222222.2222222202</v>
+        <v>0</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44">
@@ -3632,19 +3635,19 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="15"/>
-        <v>4444.4444444444407</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="5"/>
-        <v>282222.22222222196</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="6"/>
-        <v>1944444.4444444426</v>
+        <v>0</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45">
@@ -3718,19 +3721,19 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" si="15"/>
-        <v>3888.8888888888855</v>
+        <v>0</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="5"/>
-        <v>281666.6666666664</v>
+        <v>0</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" si="6"/>
-        <v>1666666.6666666651</v>
+        <v>0</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46">
@@ -3804,19 +3807,19 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="15"/>
-        <v>3333.3333333333303</v>
+        <v>0</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="5"/>
-        <v>281111.11111111083</v>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="6"/>
-        <v>1388888.8888888876</v>
+        <v>0</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47">
@@ -3890,19 +3893,19 @@
       </c>
       <c r="C48" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" si="15"/>
-        <v>2777.7777777777751</v>
+        <v>0</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="5"/>
-        <v>280555.55555555527</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" si="6"/>
-        <v>1111111.1111111101</v>
+        <v>0</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48">
@@ -3976,19 +3979,19 @@
       </c>
       <c r="C49" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="15"/>
-        <v>2222.2222222222204</v>
+        <v>0</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" si="5"/>
-        <v>279999.99999999977</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" si="6"/>
-        <v>833333.33333333256</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>33</v>
@@ -4061,19 +4064,19 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" si="15"/>
-        <v>1666.6666666666652</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" si="5"/>
-        <v>279444.44444444421</v>
+        <v>0</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" si="6"/>
-        <v>555555.55555555504</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>34</v>
@@ -4143,19 +4146,19 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="15"/>
-        <v>1111.1111111111102</v>
+        <v>0</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="5"/>
-        <v>278888.88888888864</v>
+        <v>0</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" si="6"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>35</v>
@@ -4225,15 +4228,15 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
-        <v>277777.77777777752</v>
+        <v>0</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" si="15"/>
-        <v>555.55555555555509</v>
+        <v>0</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" si="5"/>
-        <v>278333.33333333308</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" si="6"/>
@@ -26027,10 +26030,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3103CB8-02C7-449D-B099-5C0BB7A7281B}">
-  <dimension ref="B2:N76"/>
+  <dimension ref="A2:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26269,7 +26272,10 @@
         <v>75799447.295696795</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
       <c r="B17">
         <v>1</v>
       </c>
@@ -26297,7 +26303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
@@ -26325,7 +26331,7 @@
         <v>7472.7638083435386</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>3</v>
       </c>
@@ -26353,7 +26359,7 @@
         <v>14873.131895122557</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>4</v>
       </c>
@@ -26381,7 +26387,7 @@
         <v>22201.630284639985</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>5</v>
       </c>
@@ -26409,7 +26415,7 @@
         <v>29458.7816038032</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>6</v>
       </c>
@@ -26437,7 +26443,7 @@
         <v>36645.105102694477</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>7</v>
       </c>
@@ -26465,7 +26471,7 @@
         <v>43761.116675021636</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8</v>
       </c>
@@ -26493,7 +26499,7 @@
         <v>50807.328878452543</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>9</v>
       </c>
@@ -26521,7 +26527,7 @@
         <v>57784.250954827941</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>10</v>
       </c>
@@ -26549,7 +26555,7 @@
         <v>64692.388850259587</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>11</v>
       </c>
@@ -26577,7 +26583,7 @@
         <v>71532.245235109527</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>12</v>
       </c>
@@ -26605,7 +26611,7 @@
         <v>78304.319523853323</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>13</v>
       </c>
@@ -26633,7 +26639,7 @@
         <v>85009.107894828703</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>14</v>
       </c>
@@ -26661,7 +26667,7 @@
         <v>91647.103309869723</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>15</v>
       </c>
@@ -26689,7 +26695,7 @@
         <v>98218.795533824028</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>16</v>
       </c>

--- a/Smt 2/General/Money/Kredit.xlsx
+++ b/Smt 2/General/Money/Kredit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Smt 2\General\Money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4DF7AA-FF1A-4974-A323-A80514AF1C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8E324F-FB18-4DCC-87A1-9E7EC89EB3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C11EF8D-10A9-4189-A3D0-2D1743085405}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0F5DC6-4488-4008-9090-B58F78C5CAA4}">
   <dimension ref="B2:AD256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26033,7 +26033,7 @@
   <dimension ref="A2:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Smt 2/General/Money/Kredit.xlsx
+++ b/Smt 2/General/Money/Kredit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Smt 2\General\Money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8E324F-FB18-4DCC-87A1-9E7EC89EB3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209CEC2-0483-4342-9BA5-2C2B751FAC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C11EF8D-10A9-4189-A3D0-2D1743085405}"/>
   </bookViews>
@@ -21,6 +21,9 @@
     <sheet name="KPR SB Eff. Berjangka BCA (2)" sheetId="6" r:id="rId6"/>
     <sheet name="KPR SB Eff. Berjangka BCA (3)" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="Kredit Bunga Tetap" sheetId="10" r:id="rId9"/>
+    <sheet name="Kredit Bunga Efektif" sheetId="11" r:id="rId10"/>
+    <sheet name="Kredit Bunga Anuitas" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="48">
   <si>
     <t>Debt</t>
   </si>
@@ -168,6 +171,15 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>1st Payment</t>
+  </si>
+  <si>
+    <t>Payment Power</t>
+  </si>
 </sst>
 </file>
 
@@ -213,12 +225,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -235,11 +249,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{31F1B8C9-6E40-469B-ABB6-7331A9898475}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{FC7DE3FF-4080-4238-A593-7C1ED50CE311}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0F5DC6-4488-4008-9090-B58F78C5CAA4}">
   <dimension ref="B2:AD256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
       <c r="Z3" t="s">
         <v>10</v>
@@ -704,7 +724,7 @@
       </c>
       <c r="AA4" s="4">
         <f>Y7*Y3+Y3/(Y5)</f>
-        <v>1306666.6666666667</v>
+        <v>1120000</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
@@ -888,7 +908,7 @@
       </c>
       <c r="Y9" s="11">
         <f>SUM(Z17:Z256)</f>
-        <v>78400000.000000149</v>
+        <v>67200000</v>
       </c>
       <c r="Z9" t="s">
         <v>10</v>
@@ -936,7 +956,7 @@
       </c>
       <c r="Y10" s="11">
         <f>SUM(Y17:Y256)</f>
-        <v>8400000</v>
+        <v>7200000</v>
       </c>
       <c r="Z10" t="s">
         <v>10</v>
@@ -1198,7 +1218,7 @@
       </c>
       <c r="AA16" s="2">
         <f>Y3</f>
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
@@ -1206,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:C80" si="0">IF(B17&gt;$D$5,0,F16/($D$5+1-B17))</f>
+        <f>IF(B17&gt;$D$5,0,F16/($D$5+1-B17))</f>
         <v>82500</v>
       </c>
       <c r="D17" s="4">
@@ -1238,11 +1258,11 @@
         <v>2333333.3333333335</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" ref="L17:L80" si="1">IF(K17=0,0,(M16*(I17/12))/(1-1/(1+I17/12)^($J$5-H16)))</f>
+        <f t="shared" ref="L17:L80" si="0">IF(K17=0,0,(M16*(I17/12))/(1-1/(1+I17/12)^($J$5-H16)))</f>
         <v>3595313.0834097019</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" ref="M17:M75" si="2">IF(M16-J17&lt;1,0,M16-J17)</f>
+        <f t="shared" ref="M17:M75" si="1">IF(M16-J17&lt;1,0,M16-J17)</f>
         <v>398738020.24992365</v>
       </c>
       <c r="N17">
@@ -1260,7 +1280,7 @@
         <v>1099231.2118169614</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" ref="S17:S80" si="3">(U16*($S$6/12))</f>
+        <f t="shared" ref="S17:S80" si="2">(U16*($S$6/12))</f>
         <v>140000</v>
       </c>
       <c r="T17" s="4">
@@ -1268,7 +1288,7 @@
         <v>1239231.2118169614</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" ref="U17:U80" si="4">IF(U16-R17&lt;1,0,U16-R17)</f>
+        <f t="shared" ref="U17:U80" si="3">IF(U16-R17&lt;1,0,U16-R17)</f>
         <v>68900768.788183033</v>
       </c>
       <c r="W17">
@@ -1276,19 +1296,19 @@
       </c>
       <c r="X17" s="2">
         <f>IF(AA16=0,0,AA16/($Y$5+1-W17))</f>
-        <v>1166666.6666666667</v>
+        <v>1000000</v>
       </c>
       <c r="Y17" s="4">
         <f>IF(X17=0,0,$Y$7*$AA$16)</f>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z17" s="4">
         <f>Y17+X17</f>
-        <v>1306666.6666666667</v>
+        <v>1120000</v>
       </c>
       <c r="AA17" s="4">
         <f>AA16-X17</f>
-        <v>68833333.333333328</v>
+        <v>59000000</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
@@ -1296,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C17:C80" si="4">IF(B18&gt;$D$5,0,F17/($D$5+1-B18))</f>
         <v>82500</v>
       </c>
       <c r="D18" s="4">
@@ -1328,11 +1348,11 @@
         <v>2325971.7847912214</v>
       </c>
       <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>3595313.0834097015</v>
+      </c>
+      <c r="M18" s="4">
         <f t="shared" si="1"/>
-        <v>3595313.0834097015</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="2"/>
         <v>397468678.95130515</v>
       </c>
       <c r="N18">
@@ -1350,7 +1370,7 @@
         <v>1101429.6742405947</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>137801.53757636607</v>
       </c>
       <c r="T18" s="4">
@@ -1358,7 +1378,7 @@
         <v>1239231.2118169607</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67799339.113942444</v>
       </c>
       <c r="W18">
@@ -1366,19 +1386,19 @@
       </c>
       <c r="X18" s="2">
         <f t="shared" ref="X18:X26" si="11">IF(AA17=0,0,AA17/($Y$5+1-W18))</f>
-        <v>1166666.6666666665</v>
+        <v>1000000</v>
       </c>
       <c r="Y18" s="4">
         <f t="shared" ref="Y18:Y80" si="12">IF(X18=0,0,$Y$7*$AA$16)</f>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z18" s="4">
         <f t="shared" ref="Z18:Z81" si="13">Y18+X18</f>
-        <v>1306666.6666666665</v>
+        <v>1120000</v>
       </c>
       <c r="AA18" s="4">
         <f t="shared" ref="AA18:AA81" si="14">AA17-X18</f>
-        <v>67666666.666666657</v>
+        <v>58000000</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
@@ -1386,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82500</v>
       </c>
       <c r="D19" s="4">
@@ -1418,11 +1438,11 @@
         <v>2318567.2938826135</v>
       </c>
       <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>3595313.0834097019</v>
+      </c>
+      <c r="M19" s="4">
         <f t="shared" si="1"/>
-        <v>3595313.0834097019</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="2"/>
         <v>396191933.16177809</v>
       </c>
       <c r="N19">
@@ -1440,7 +1460,7 @@
         <v>1103632.5335890779</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>135598.6782278849</v>
       </c>
       <c r="T19" s="4">
@@ -1448,7 +1468,7 @@
         <v>1239231.2118169628</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>66695706.580353364</v>
       </c>
       <c r="W19">
@@ -1456,19 +1476,19 @@
       </c>
       <c r="X19" s="2">
         <f t="shared" si="11"/>
-        <v>1166666.6666666665</v>
+        <v>1000000</v>
       </c>
       <c r="Y19" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666665</v>
+        <v>1120000</v>
       </c>
       <c r="AA19" s="4">
         <f t="shared" si="14"/>
-        <v>66499999.999999993</v>
+        <v>57000000</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -1476,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82500</v>
       </c>
       <c r="D20" s="4">
@@ -1508,11 +1528,11 @@
         <v>2311119.6101103723</v>
       </c>
       <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>3595313.0834097015</v>
+      </c>
+      <c r="M20" s="4">
         <f t="shared" si="1"/>
-        <v>3595313.0834097015</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="2"/>
         <v>394907739.68847877</v>
       </c>
       <c r="N20">
@@ -1530,7 +1550,7 @@
         <v>1105839.7986562527</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>133391.41316070672</v>
       </c>
       <c r="T20" s="4">
@@ -1538,7 +1558,7 @@
         <v>1239231.2118169593</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>65589866.781697109</v>
       </c>
       <c r="W20">
@@ -1546,19 +1566,19 @@
       </c>
       <c r="X20" s="2">
         <f t="shared" si="11"/>
-        <v>1166666.6666666665</v>
+        <v>1000000</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666665</v>
+        <v>1120000</v>
       </c>
       <c r="AA20" s="4">
         <f t="shared" si="14"/>
-        <v>65333333.333333328</v>
+        <v>56000000</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -1566,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82500</v>
       </c>
       <c r="D21" s="4">
@@ -1598,11 +1618,11 @@
         <v>2303628.4815161261</v>
       </c>
       <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>3595313.0834097019</v>
+      </c>
+      <c r="M21" s="4">
         <f t="shared" si="1"/>
-        <v>3595313.0834097019</v>
-      </c>
-      <c r="M21" s="4">
-        <f t="shared" si="2"/>
         <v>393616055.08658516</v>
       </c>
       <c r="N21">
@@ -1620,7 +1640,7 @@
         <v>1108051.4782535676</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>131179.73356339423</v>
       </c>
       <c r="T21" s="4">
@@ -1628,7 +1648,7 @@
         <v>1239231.2118169619</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>64481815.303443544</v>
       </c>
       <c r="W21">
@@ -1636,19 +1656,19 @@
       </c>
       <c r="X21" s="2">
         <f t="shared" si="11"/>
-        <v>1166666.6666666665</v>
+        <v>1000000</v>
       </c>
       <c r="Y21" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z21" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666665</v>
+        <v>1120000</v>
       </c>
       <c r="AA21" s="4">
         <f t="shared" si="14"/>
-        <v>64166666.666666664</v>
+        <v>55000000</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
@@ -1656,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82500</v>
       </c>
       <c r="D22" s="4">
@@ -1688,11 +1708,11 @@
         <v>2296093.6546717468</v>
       </c>
       <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>3595313.0834097015</v>
+      </c>
+      <c r="M22" s="4">
         <f t="shared" si="1"/>
-        <v>3595313.0834097015</v>
-      </c>
-      <c r="M22" s="4">
-        <f t="shared" si="2"/>
         <v>392316835.65784723</v>
       </c>
       <c r="N22" s="4"/>
@@ -1706,7 +1726,7 @@
         <v>1110267.5812100747</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>128963.63060688709</v>
       </c>
       <c r="T22" s="4">
@@ -1714,7 +1734,7 @@
         <v>1239231.2118169619</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>63371547.722233467</v>
       </c>
       <c r="W22">
@@ -1722,19 +1742,19 @@
       </c>
       <c r="X22" s="2">
         <f t="shared" si="11"/>
-        <v>1166666.6666666665</v>
+        <v>1000000</v>
       </c>
       <c r="Y22" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666665</v>
+        <v>1120000</v>
       </c>
       <c r="AA22" s="4">
         <f t="shared" si="14"/>
-        <v>63000000</v>
+        <v>54000000</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -1742,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82500</v>
       </c>
       <c r="D23" s="4">
@@ -1774,11 +1794,11 @@
         <v>2288514.8746707756</v>
       </c>
       <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>3595313.0834097019</v>
+      </c>
+      <c r="M23" s="4">
         <f t="shared" si="1"/>
-        <v>3595313.0834097019</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" si="2"/>
         <v>391010037.4491083</v>
       </c>
       <c r="N23" s="4"/>
@@ -1792,7 +1812,7 @@
         <v>1112488.1163724961</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>126743.09544446693</v>
       </c>
       <c r="T23" s="4">
@@ -1800,7 +1820,7 @@
         <v>1239231.211816963</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>62259059.605860971</v>
       </c>
       <c r="W23">
@@ -1808,19 +1828,19 @@
       </c>
       <c r="X23" s="2">
         <f t="shared" si="11"/>
-        <v>1166666.6666666667</v>
+        <v>1000000</v>
       </c>
       <c r="Y23" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z23" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666667</v>
+        <v>1120000</v>
       </c>
       <c r="AA23" s="4">
         <f t="shared" si="14"/>
-        <v>61833333.333333336</v>
+        <v>53000000</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
@@ -1828,7 +1848,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82500</v>
       </c>
       <c r="D24" s="4">
@@ -1860,11 +1880,11 @@
         <v>2280891.8851197986</v>
       </c>
       <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>3595313.0834097015</v>
+      </c>
+      <c r="M24" s="4">
         <f t="shared" si="1"/>
-        <v>3595313.0834097015</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="2"/>
         <v>389695616.25081837</v>
       </c>
       <c r="N24" s="4"/>
@@ -1878,7 +1898,7 @@
         <v>1114713.0926052367</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>124518.11921172195</v>
       </c>
       <c r="T24" s="4">
@@ -1894,19 +1914,19 @@
       </c>
       <c r="X24" s="2">
         <f t="shared" si="11"/>
-        <v>1166666.6666666667</v>
+        <v>1000000</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666667</v>
+        <v>1120000</v>
       </c>
       <c r="AA24" s="4">
         <f t="shared" si="14"/>
-        <v>60666666.666666672</v>
+        <v>52000000</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
@@ -1914,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82500</v>
       </c>
       <c r="D25" s="4">
@@ -1946,11 +1966,11 @@
         <v>2273224.4281297741</v>
       </c>
       <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>3595313.0834097019</v>
+      </c>
+      <c r="M25" s="4">
         <f t="shared" si="1"/>
-        <v>3595313.0834097019</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" si="2"/>
         <v>388373527.59553844</v>
       </c>
       <c r="N25" s="4"/>
@@ -1964,7 +1984,7 @@
         <v>1116942.5187904492</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>122288.69302651148</v>
       </c>
       <c r="T25" s="4">
@@ -1980,19 +2000,19 @@
       </c>
       <c r="X25" s="2">
         <f t="shared" si="11"/>
-        <v>1166666.6666666667</v>
+        <v>1000000</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666667</v>
+        <v>1120000</v>
       </c>
       <c r="AA25" s="4">
         <f t="shared" si="14"/>
-        <v>59500000.000000007</v>
+        <v>51000000</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
@@ -2000,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82500</v>
       </c>
       <c r="D26" s="4">
@@ -2032,11 +2052,11 @@
         <v>2265512.2443073075</v>
       </c>
       <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>3535824.408292688</v>
+      </c>
+      <c r="M26" s="4">
         <f t="shared" si="1"/>
-        <v>3535824.408292688</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="2"/>
         <v>387103215.43155307</v>
       </c>
       <c r="N26" s="4"/>
@@ -2058,7 +2078,7 @@
         <v>1239231.2118169602</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>58908227.590637259</v>
       </c>
       <c r="W26">
@@ -2066,19 +2086,19 @@
       </c>
       <c r="X26" s="2">
         <f t="shared" si="11"/>
-        <v>1166666.6666666667</v>
+        <v>1000000</v>
       </c>
       <c r="Y26" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z26" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666667</v>
+        <v>1120000</v>
       </c>
       <c r="AA26" s="4">
         <f t="shared" si="14"/>
-        <v>58333333.333333343</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -2086,7 +2106,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82500</v>
       </c>
       <c r="D27" s="4">
@@ -2118,11 +2138,11 @@
         <v>2258102.0900173928</v>
       </c>
       <c r="L27" s="4">
+        <f t="shared" si="0"/>
+        <v>3595865.6835351586</v>
+      </c>
+      <c r="M27" s="4">
         <f t="shared" si="1"/>
-        <v>3595865.6835351586</v>
-      </c>
-      <c r="M27" s="4">
-        <f t="shared" si="2"/>
         <v>385765451.83803529</v>
       </c>
       <c r="N27" s="4"/>
@@ -2136,7 +2156,7 @@
         <v>1121414.7566356864</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>117816.45518127452</v>
       </c>
       <c r="T27" s="4">
@@ -2144,7 +2164,7 @@
         <v>1239231.2118169609</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57786812.834001571</v>
       </c>
       <c r="W27">
@@ -2152,19 +2172,19 @@
       </c>
       <c r="X27" s="2">
         <f>IF(AA26=0,0,AA26/($Y$5+1-W27))</f>
-        <v>1166666.666666667</v>
+        <v>1000000</v>
       </c>
       <c r="Y27" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z27" s="4">
         <f>Y27+X27</f>
-        <v>1306666.666666667</v>
+        <v>1120000</v>
       </c>
       <c r="AA27" s="4">
         <f>AA26-X27</f>
-        <v>57166666.666666679</v>
+        <v>49000000</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
@@ -2172,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>82500</v>
       </c>
       <c r="D28" s="4">
@@ -2204,11 +2224,11 @@
         <v>2250298.469055206</v>
       </c>
       <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>3595865.6835351582</v>
+      </c>
+      <c r="M28" s="4">
         <f t="shared" si="1"/>
-        <v>3595865.6835351582</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" si="2"/>
         <v>384419884.62355536</v>
       </c>
       <c r="N28" s="4"/>
@@ -2222,7 +2242,7 @@
         <v>1123657.5861489575</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>115573.62566800315</v>
       </c>
       <c r="T28" s="4">
@@ -2230,7 +2250,7 @@
         <v>1239231.2118169607</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>56663155.247852616</v>
       </c>
       <c r="W28">
@@ -2238,19 +2258,19 @@
       </c>
       <c r="X28" s="2">
         <f t="shared" ref="X28:X91" si="17">IF(AA27=0,0,AA27/($Y$5+1-W28))</f>
-        <v>1166666.666666667</v>
+        <v>1000000</v>
       </c>
       <c r="Y28" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z28" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.666666667</v>
+        <v>1120000</v>
       </c>
       <c r="AA28" s="4">
         <f t="shared" si="14"/>
-        <v>56000000.000000015</v>
+        <v>48000000</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
@@ -2258,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D29" s="4">
@@ -2290,11 +2310,11 @@
         <v>2322536.8029339802</v>
       </c>
       <c r="L29" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007043</v>
+      </c>
+      <c r="M29" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007043</v>
-      </c>
-      <c r="M29" s="4">
-        <f t="shared" si="2"/>
         <v>383093440.47568864</v>
       </c>
       <c r="N29" s="4"/>
@@ -2308,7 +2328,7 @@
         <v>1125904.9013212547</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>113326.31049570523</v>
       </c>
       <c r="T29" s="4">
@@ -2316,7 +2336,7 @@
         <v>1239231.2118169598</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55537250.346531361</v>
       </c>
       <c r="W29">
@@ -2324,19 +2344,19 @@
       </c>
       <c r="X29" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.666666667</v>
+        <v>1000000</v>
       </c>
       <c r="Y29" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z29" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.666666667</v>
+        <v>1120000</v>
       </c>
       <c r="AA29" s="4">
         <f t="shared" si="14"/>
-        <v>54833333.333333351</v>
+        <v>47000000</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
@@ -2344,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D30" s="4">
@@ -2376,11 +2396,11 @@
         <v>2314522.8695406187</v>
       </c>
       <c r="L30" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007038</v>
+      </c>
+      <c r="M30" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007038</v>
-      </c>
-      <c r="M30" s="4">
-        <f t="shared" si="2"/>
         <v>381758982.39442855</v>
       </c>
       <c r="N30" s="4"/>
@@ -2394,7 +2414,7 @@
         <v>1128156.7111238956</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>111074.50069306273</v>
       </c>
       <c r="T30" s="4">
@@ -2402,7 +2422,7 @@
         <v>1239231.2118169584</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54409093.635407463</v>
       </c>
       <c r="W30">
@@ -2410,19 +2430,19 @@
       </c>
       <c r="X30" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.666666667</v>
+        <v>1000000</v>
       </c>
       <c r="Y30" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z30" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.666666667</v>
+        <v>1120000</v>
       </c>
       <c r="AA30" s="4">
         <f t="shared" si="14"/>
-        <v>53666666.666666687</v>
+        <v>46000000</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
@@ -2430,7 +2450,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D31" s="4">
@@ -2462,11 +2482,11 @@
         <v>2306460.5186330057</v>
       </c>
       <c r="L31" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007048</v>
+      </c>
+      <c r="M31" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007048</v>
-      </c>
-      <c r="M31" s="4">
-        <f t="shared" si="2"/>
         <v>380416461.96226084</v>
       </c>
       <c r="N31" s="4"/>
@@ -2480,7 +2500,7 @@
         <v>1130413.0245461476</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>108818.18727081493</v>
       </c>
       <c r="T31" s="4">
@@ -2488,7 +2508,7 @@
         <v>1239231.2118169626</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53278680.610861316</v>
       </c>
       <c r="W31">
@@ -2496,19 +2516,19 @@
       </c>
       <c r="X31" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666672</v>
+        <v>1000000</v>
       </c>
       <c r="Y31" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z31" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666672</v>
+        <v>1120000</v>
       </c>
       <c r="AA31" s="4">
         <f t="shared" si="14"/>
-        <v>52500000.000000022</v>
+        <v>45000000</v>
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
@@ -2516,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D32" s="4">
@@ -2548,11 +2568,11 @@
         <v>2298349.4576886594</v>
       </c>
       <c r="L32" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007048</v>
+      </c>
+      <c r="M32" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007048</v>
-      </c>
-      <c r="M32" s="4">
-        <f t="shared" si="2"/>
         <v>379065830.46914881</v>
       </c>
       <c r="N32" s="4"/>
@@ -2566,7 +2586,7 @@
         <v>1132673.8505952337</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>106557.36122172263</v>
       </c>
       <c r="T32" s="4">
@@ -2574,7 +2594,7 @@
         <v>1239231.2118169563</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>52146006.76026608</v>
       </c>
       <c r="W32">
@@ -2582,19 +2602,19 @@
       </c>
       <c r="X32" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666672</v>
+        <v>1000000</v>
       </c>
       <c r="Y32" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z32" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666672</v>
+        <v>1120000</v>
       </c>
       <c r="AA32" s="4">
         <f t="shared" si="14"/>
-        <v>51333333.333333358</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
@@ -2602,7 +2622,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D33" s="4">
@@ -2634,11 +2654,11 @@
         <v>2290189.3924177741</v>
       </c>
       <c r="L33" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007052</v>
+      </c>
+      <c r="M33" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007052</v>
-      </c>
-      <c r="M33" s="4">
-        <f t="shared" si="2"/>
         <v>377707038.91076589</v>
       </c>
       <c r="N33" s="4"/>
@@ -2652,7 +2672,7 @@
         <v>1134939.198296427</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>104292.01352053216</v>
       </c>
       <c r="T33" s="4">
@@ -2660,7 +2680,7 @@
         <v>1239231.2118169591</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>51011067.561969653</v>
       </c>
       <c r="W33">
@@ -2668,19 +2688,19 @@
       </c>
       <c r="X33" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666672</v>
+        <v>1000000</v>
       </c>
       <c r="Y33" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z33" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666672</v>
+        <v>1120000</v>
       </c>
       <c r="AA33" s="4">
         <f t="shared" si="14"/>
-        <v>50166666.666666694</v>
+        <v>43000000</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
@@ -2688,7 +2708,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D34" s="4">
@@ -2720,11 +2740,11 @@
         <v>2281980.0267525436</v>
       </c>
       <c r="L34" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007043</v>
+      </c>
+      <c r="M34" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007043</v>
-      </c>
-      <c r="M34" s="4">
-        <f t="shared" si="2"/>
         <v>376340037.9867177</v>
       </c>
       <c r="N34" s="4"/>
@@ -2738,7 +2758,7 @@
         <v>1137209.0766930201</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>102022.13512393931</v>
       </c>
       <c r="T34" s="4">
@@ -2746,7 +2766,7 @@
         <v>1239231.2118169593</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>49873858.485276632</v>
       </c>
       <c r="W34">
@@ -2754,19 +2774,19 @@
       </c>
       <c r="X34" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666672</v>
+        <v>1000000</v>
       </c>
       <c r="Y34" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z34" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666672</v>
+        <v>1120000</v>
       </c>
       <c r="AA34" s="4">
         <f t="shared" si="14"/>
-        <v>49000000.00000003</v>
+        <v>42000000</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
@@ -2774,7 +2794,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D35" s="4">
@@ -2806,11 +2826,11 @@
         <v>2273721.0628364193</v>
       </c>
       <c r="L35" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007038</v>
+      </c>
+      <c r="M35" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007038</v>
-      </c>
-      <c r="M35" s="4">
-        <f t="shared" si="2"/>
         <v>374964778.09875339</v>
       </c>
       <c r="N35" s="4"/>
@@ -2824,7 +2844,7 @@
         <v>1139483.4948464069</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99747.716970553272</v>
       </c>
       <c r="T35" s="4">
@@ -2832,7 +2852,7 @@
         <v>1239231.2118169602</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>48734374.990430228</v>
       </c>
       <c r="W35">
@@ -2840,19 +2860,19 @@
       </c>
       <c r="X35" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666674</v>
+        <v>1000000</v>
       </c>
       <c r="Y35" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z35" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666674</v>
+        <v>1120000</v>
       </c>
       <c r="AA35" s="4">
         <f t="shared" si="14"/>
-        <v>47833333.333333366</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
@@ -2860,7 +2880,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D36" s="4">
@@ -2892,11 +2912,11 @@
         <v>2265412.2010133015</v>
       </c>
       <c r="L36" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007038</v>
+      </c>
+      <c r="M36" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007038</v>
-      </c>
-      <c r="M36" s="4">
-        <f t="shared" si="2"/>
         <v>373581209.348966</v>
       </c>
       <c r="N36" s="4"/>
@@ -2910,7 +2930,7 @@
         <v>1141762.4618360952</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>97468.749980860463</v>
       </c>
       <c r="T36" s="4">
@@ -2918,7 +2938,7 @@
         <v>1239231.2118169556</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>47592612.528594136</v>
       </c>
       <c r="W36">
@@ -2926,19 +2946,19 @@
       </c>
       <c r="X36" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666674</v>
+        <v>1000000</v>
       </c>
       <c r="Y36" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z36" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666674</v>
+        <v>1120000</v>
       </c>
       <c r="AA36" s="4">
         <f t="shared" si="14"/>
-        <v>46666666.666666701</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -2946,7 +2966,7 @@
         <v>21</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D37" s="4">
@@ -2978,11 +2998,11 @@
         <v>2257053.1398166697</v>
       </c>
       <c r="L37" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007052</v>
+      </c>
+      <c r="M37" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007052</v>
-      </c>
-      <c r="M37" s="4">
-        <f t="shared" si="2"/>
         <v>372189281.53798199</v>
       </c>
       <c r="N37" s="4"/>
@@ -2996,7 +3016,7 @@
         <v>1144045.9867597697</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>95185.225057188276</v>
       </c>
       <c r="T37" s="4">
@@ -3004,7 +3024,7 @@
         <v>1239231.2118169579</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46448566.541834369</v>
       </c>
       <c r="W37">
@@ -3012,19 +3032,19 @@
       </c>
       <c r="X37" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666674</v>
+        <v>1000000</v>
       </c>
       <c r="Y37" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z37" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666674</v>
+        <v>1120000</v>
       </c>
       <c r="AA37" s="4">
         <f t="shared" si="14"/>
-        <v>45500000.000000037</v>
+        <v>39000000</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
@@ -3032,7 +3052,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D38" s="4">
@@ -3064,11 +3084,11 @@
         <v>2248643.5759586412</v>
       </c>
       <c r="L38" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007052</v>
+      </c>
+      <c r="M38" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007052</v>
-      </c>
-      <c r="M38" s="4">
-        <f t="shared" si="2"/>
         <v>370788944.16313994</v>
       </c>
       <c r="N38" s="4"/>
@@ -3082,7 +3102,7 @@
         <v>1146334.0787332878</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>92897.133083668741</v>
       </c>
       <c r="T38" s="4">
@@ -3090,7 +3110,7 @@
         <v>1239231.2118169565</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45302232.463101082</v>
       </c>
       <c r="W38">
@@ -3098,19 +3118,19 @@
       </c>
       <c r="X38" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666677</v>
+        <v>1000000</v>
       </c>
       <c r="Y38" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z38" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666677</v>
+        <v>1120000</v>
       </c>
       <c r="AA38" s="4">
         <f t="shared" si="14"/>
-        <v>44333333.333333373</v>
+        <v>38000000</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
@@ -3118,7 +3138,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D39" s="4">
@@ -3150,11 +3170,11 @@
         <v>2240183.2043189704</v>
       </c>
       <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007052</v>
+      </c>
+      <c r="M39" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007052</v>
-      </c>
-      <c r="M39" s="4">
-        <f t="shared" si="2"/>
         <v>369380146.41665822</v>
       </c>
       <c r="N39" s="4"/>
@@ -3168,7 +3188,7 @@
         <v>1148626.7468907598</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90604.46492620217</v>
       </c>
       <c r="T39" s="4">
@@ -3176,7 +3196,7 @@
         <v>1239231.2118169619</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44153605.716210321</v>
       </c>
       <c r="W39">
@@ -3184,19 +3204,19 @@
       </c>
       <c r="X39" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666677</v>
+        <v>1000000</v>
       </c>
       <c r="Y39" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z39" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666677</v>
+        <v>1120000</v>
       </c>
       <c r="AA39" s="4">
         <f t="shared" si="14"/>
-        <v>43166666.666666709</v>
+        <v>37000000</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
@@ -3204,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D40" s="4">
@@ -3236,11 +3256,11 @@
         <v>2231671.7179339766</v>
       </c>
       <c r="L40" s="4">
+        <f t="shared" si="0"/>
+        <v>3648980.9508007043</v>
+      </c>
+      <c r="M40" s="4">
         <f t="shared" si="1"/>
-        <v>3648980.9508007043</v>
-      </c>
-      <c r="M40" s="4">
-        <f t="shared" si="2"/>
         <v>367962837.18379152</v>
       </c>
       <c r="N40" s="4"/>
@@ -3254,7 +3274,7 @@
         <v>1150924.0003845352</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>88307.211432420649</v>
       </c>
       <c r="T40" s="4">
@@ -3262,7 +3282,7 @@
         <v>1239231.2118169558</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43002681.715825789</v>
       </c>
       <c r="W40">
@@ -3270,19 +3290,19 @@
       </c>
       <c r="X40" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666679</v>
+        <v>1000000</v>
       </c>
       <c r="Y40" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z40" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666679</v>
+        <v>1120000</v>
       </c>
       <c r="AA40" s="4">
         <f t="shared" si="14"/>
-        <v>42000000.000000045</v>
+        <v>36000000</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
@@ -3290,7 +3310,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D41" s="4">
@@ -3322,11 +3342,11 @@
         <v>2299767.7323986967</v>
       </c>
       <c r="L41" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.5243518441</v>
+      </c>
+      <c r="M41" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.5243518441</v>
-      </c>
-      <c r="M41" s="4">
-        <f t="shared" si="2"/>
         <v>366563215.39183837</v>
       </c>
       <c r="N41" s="4"/>
@@ -3340,7 +3360,7 @@
         <v>1153225.848385304</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>86005.363431651582</v>
       </c>
       <c r="T41" s="4">
@@ -3348,7 +3368,7 @@
         <v>1239231.2118169556</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41849455.867440484</v>
       </c>
       <c r="W41">
@@ -3356,19 +3376,19 @@
       </c>
       <c r="X41" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666679</v>
+        <v>1000000</v>
       </c>
       <c r="Y41" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z41" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666679</v>
+        <v>1120000</v>
       </c>
       <c r="AA41" s="4">
         <f t="shared" si="14"/>
-        <v>40833333.333333373</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -3376,7 +3396,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D42" s="4">
@@ -3408,11 +3428,11 @@
         <v>2291020.0961989895</v>
       </c>
       <c r="L42" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.5243518441</v>
+      </c>
+      <c r="M42" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.5243518441</v>
-      </c>
-      <c r="M42" s="4">
-        <f t="shared" si="2"/>
         <v>365154845.96368551</v>
       </c>
       <c r="N42" s="4"/>
@@ -3426,7 +3446,7 @@
         <v>1155532.3000820761</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>83698.911734880967</v>
       </c>
       <c r="T42" s="4">
@@ -3434,7 +3454,7 @@
         <v>1239231.211816957</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40693923.567358412</v>
       </c>
       <c r="W42">
@@ -3442,19 +3462,19 @@
       </c>
       <c r="X42" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666679</v>
+        <v>1000000</v>
       </c>
       <c r="Y42" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z42" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666679</v>
+        <v>1120000</v>
       </c>
       <c r="AA42" s="4">
         <f t="shared" si="14"/>
-        <v>39666666.666666701</v>
+        <v>34000000</v>
       </c>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
@@ -3462,7 +3482,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D43" s="4">
@@ -3494,11 +3514,11 @@
         <v>2282217.7872730345</v>
       </c>
       <c r="L43" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.5243518446</v>
+      </c>
+      <c r="M43" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.5243518446</v>
-      </c>
-      <c r="M43" s="4">
-        <f t="shared" si="2"/>
         <v>363737674.22660673</v>
       </c>
       <c r="N43" s="4"/>
@@ -3512,7 +3532,7 @@
         <v>1157843.3646822406</v>
       </c>
       <c r="S43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>81387.847134716823</v>
       </c>
       <c r="T43" s="4">
@@ -3520,7 +3540,7 @@
         <v>1239231.2118169575</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39536080.20267617</v>
       </c>
       <c r="W43">
@@ -3528,19 +3548,19 @@
       </c>
       <c r="X43" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666677</v>
+        <v>1000000</v>
       </c>
       <c r="Y43" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z43" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666677</v>
+        <v>1120000</v>
       </c>
       <c r="AA43" s="4">
         <f t="shared" si="14"/>
-        <v>38500000.000000037</v>
+        <v>33000000</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
@@ -3548,7 +3568,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D44" s="4">
@@ -3580,11 +3600,11 @@
         <v>2273360.4639162919</v>
       </c>
       <c r="L44" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.5243518455</v>
+      </c>
+      <c r="M44" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.5243518455</v>
-      </c>
-      <c r="M44" s="4">
-        <f t="shared" si="2"/>
         <v>362311645.16617119</v>
       </c>
       <c r="N44" s="4"/>
@@ -3598,7 +3618,7 @@
         <v>1160159.0514116047</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>79072.160405352348</v>
       </c>
       <c r="T44" s="4">
@@ -3606,7 +3626,7 @@
         <v>1239231.211816957</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38375921.151264563</v>
       </c>
       <c r="W44">
@@ -3614,19 +3634,19 @@
       </c>
       <c r="X44" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666679</v>
+        <v>1000000</v>
       </c>
       <c r="Y44" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z44" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666679</v>
+        <v>1120000</v>
       </c>
       <c r="AA44" s="4">
         <f t="shared" si="14"/>
-        <v>37333333.333333373</v>
+        <v>32000000</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
@@ -3634,7 +3654,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D45" s="4">
@@ -3666,11 +3686,11 @@
         <v>2264447.78228857</v>
       </c>
       <c r="L45" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.5243518455</v>
+      </c>
+      <c r="M45" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.5243518455</v>
-      </c>
-      <c r="M45" s="4">
-        <f t="shared" si="2"/>
         <v>360876703.42410791</v>
       </c>
       <c r="N45" s="4"/>
@@ -3684,7 +3704,7 @@
         <v>1162479.3695144255</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>76751.842302529127</v>
       </c>
       <c r="T45" s="4">
@@ -3692,7 +3712,7 @@
         <v>1239231.2118169547</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37213441.781750135</v>
       </c>
       <c r="W45">
@@ -3700,19 +3720,19 @@
       </c>
       <c r="X45" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666679</v>
+        <v>1000000</v>
       </c>
       <c r="Y45" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z45" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666679</v>
+        <v>1120000</v>
       </c>
       <c r="AA45" s="4">
         <f t="shared" si="14"/>
-        <v>36166666.666666701</v>
+        <v>31000000</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
@@ -3720,7 +3740,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D46" s="4">
@@ -3752,11 +3772,11 @@
         <v>2255479.3964006742</v>
       </c>
       <c r="L46" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.524351845</v>
+      </c>
+      <c r="M46" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.524351845</v>
-      </c>
-      <c r="M46" s="4">
-        <f t="shared" si="2"/>
         <v>359432793.29615676</v>
       </c>
       <c r="N46" s="4"/>
@@ -3770,7 +3790,7 @@
         <v>1164804.3282534529</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>74426.883563500276</v>
       </c>
       <c r="T46" s="4">
@@ -3778,7 +3798,7 @@
         <v>1239231.2118169533</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36048637.45349668</v>
       </c>
       <c r="W46">
@@ -3786,19 +3806,19 @@
       </c>
       <c r="X46" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666677</v>
+        <v>1000000</v>
       </c>
       <c r="Y46" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z46" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666677</v>
+        <v>1120000</v>
       </c>
       <c r="AA46" s="4">
         <f t="shared" si="14"/>
-        <v>35000000.000000037</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
@@ -3806,7 +3826,7 @@
         <v>31</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D47" s="4">
@@ -3838,11 +3858,11 @@
         <v>2246454.9581009797</v>
       </c>
       <c r="L47" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.524351846</v>
+      </c>
+      <c r="M47" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.524351846</v>
-      </c>
-      <c r="M47" s="4">
-        <f t="shared" si="2"/>
         <v>357979858.7299059</v>
       </c>
       <c r="N47" s="4"/>
@@ -3856,7 +3876,7 @@
         <v>1167133.9369099662</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>72097.274906993363</v>
       </c>
       <c r="T47" s="4">
@@ -3864,7 +3884,7 @@
         <v>1239231.2118169595</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34881503.516586713</v>
       </c>
       <c r="W47">
@@ -3872,19 +3892,19 @@
       </c>
       <c r="X47" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666679</v>
+        <v>1000000</v>
       </c>
       <c r="Y47" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z47" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666679</v>
+        <v>1120000</v>
       </c>
       <c r="AA47" s="4">
         <f t="shared" si="14"/>
-        <v>33833333.333333373</v>
+        <v>29000000</v>
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
@@ -3892,7 +3912,7 @@
         <v>32</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D48" s="4">
@@ -3924,11 +3944,11 @@
         <v>2237374.1170619116</v>
       </c>
       <c r="L48" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.5243518455</v>
+      </c>
+      <c r="M48" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.5243518455</v>
-      </c>
-      <c r="M48" s="4">
-        <f t="shared" si="2"/>
         <v>356517843.32261598</v>
       </c>
       <c r="N48" s="4"/>
@@ -3942,7 +3962,7 @@
         <v>1169468.2047837751</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>69763.007033173431</v>
       </c>
       <c r="T48" s="4">
@@ -3950,7 +3970,7 @@
         <v>1239231.2118169486</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33712035.311802939</v>
       </c>
       <c r="W48">
@@ -3958,19 +3978,19 @@
       </c>
       <c r="X48" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y48" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z48" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA48" s="4">
         <f t="shared" si="14"/>
-        <v>32666666.666666705</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.25">
@@ -3978,7 +3998,7 @@
         <v>33</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D49" s="4">
@@ -4009,11 +4029,11 @@
         <v>2228236.5207663495</v>
       </c>
       <c r="L49" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.5243518455</v>
+      </c>
+      <c r="M49" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.5243518455</v>
-      </c>
-      <c r="M49" s="4">
-        <f t="shared" si="2"/>
         <v>355046690.31903046</v>
       </c>
       <c r="N49" s="4"/>
@@ -4027,7 +4047,7 @@
         <v>1171807.1411933457</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>67424.070623605876</v>
       </c>
       <c r="T49" s="4">
@@ -4035,7 +4055,7 @@
         <v>1239231.2118169516</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32540228.170609593</v>
       </c>
       <c r="W49">
@@ -4043,19 +4063,19 @@
       </c>
       <c r="X49" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y49" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z49" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA49" s="4">
         <f t="shared" si="14"/>
-        <v>31500000.000000037</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
@@ -4063,7 +4083,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D50" s="4">
@@ -4094,11 +4114,11 @@
         <v>2219041.8144939402</v>
       </c>
       <c r="L50" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.524351846</v>
+      </c>
+      <c r="M50" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.524351846</v>
-      </c>
-      <c r="M50" s="4">
-        <f t="shared" si="2"/>
         <v>353566342.60917258</v>
       </c>
       <c r="Q50">
@@ -4109,7 +4129,7 @@
         <v>1174150.755475733</v>
       </c>
       <c r="S50" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>65080.456341219186</v>
       </c>
       <c r="T50" s="4">
@@ -4117,7 +4137,7 @@
         <v>1239231.2118169521</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31366077.41513386</v>
       </c>
       <c r="W50">
@@ -4125,19 +4145,19 @@
       </c>
       <c r="X50" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y50" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z50" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA50" s="4">
         <f t="shared" si="14"/>
-        <v>30333333.333333369</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.25">
@@ -4145,7 +4165,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D51" s="4">
@@ -4176,11 +4196,11 @@
         <v>2209789.6413073284</v>
       </c>
       <c r="L51" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.5243518464</v>
+      </c>
+      <c r="M51" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.5243518464</v>
-      </c>
-      <c r="M51" s="4">
-        <f t="shared" si="2"/>
         <v>352076742.72612804</v>
       </c>
       <c r="Q51">
@@ -4191,7 +4211,7 @@
         <v>1176499.0569866856</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>62732.154830267718</v>
       </c>
       <c r="T51" s="4">
@@ -4199,7 +4219,7 @@
         <v>1239231.2118169533</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30189578.358147174</v>
       </c>
       <c r="W51">
@@ -4207,19 +4227,19 @@
       </c>
       <c r="X51" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y51" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z51" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA51" s="4">
         <f t="shared" si="14"/>
-        <v>29166666.666666701</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
@@ -4227,7 +4247,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D52" s="4">
@@ -4258,11 +4278,11 @@
         <v>2200479.6420383002</v>
       </c>
       <c r="L52" s="4">
+        <f t="shared" si="0"/>
+        <v>3699389.524351846</v>
+      </c>
+      <c r="M52" s="4">
         <f t="shared" si="1"/>
-        <v>3699389.524351846</v>
-      </c>
-      <c r="M52" s="4">
-        <f t="shared" si="2"/>
         <v>350577832.84381449</v>
       </c>
       <c r="Q52">
@@ -4273,7 +4293,7 @@
         <v>1178852.055100651</v>
       </c>
       <c r="S52" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60379.156716294347</v>
       </c>
       <c r="T52" s="4">
@@ -4281,7 +4301,7 @@
         <v>1239231.2118169453</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29010726.303046525</v>
       </c>
       <c r="W52">
@@ -4289,19 +4309,19 @@
       </c>
       <c r="X52" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y52" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z52" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA52" s="4">
         <f t="shared" si="14"/>
-        <v>28000000.000000034</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
@@ -4309,7 +4329,7 @@
         <v>37</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D53" s="4">
@@ -4340,11 +4360,11 @@
         <v>2045037.3582555847</v>
       </c>
       <c r="L53" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695373</v>
+      </c>
+      <c r="M53" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695373</v>
-      </c>
-      <c r="M53" s="4">
-        <f t="shared" si="2"/>
         <v>349017594.04580057</v>
       </c>
       <c r="Q53">
@@ -4355,7 +4375,7 @@
         <v>1181209.7592108583</v>
       </c>
       <c r="S53" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>58021.452606093051</v>
       </c>
       <c r="T53" s="4">
@@ -4363,7 +4383,7 @@
         <v>1239231.2118169514</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27829516.543835666</v>
       </c>
       <c r="W53">
@@ -4371,19 +4391,19 @@
       </c>
       <c r="X53" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y53" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z53" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA53" s="4">
         <f t="shared" si="14"/>
-        <v>26833333.333333366</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
@@ -4391,7 +4411,7 @@
         <v>38</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D54" s="4">
@@ -4422,11 +4442,11 @@
         <v>2035935.96526717</v>
       </c>
       <c r="L54" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695378</v>
+      </c>
+      <c r="M54" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695378</v>
-      </c>
-      <c r="M54" s="4">
-        <f t="shared" si="2"/>
         <v>347448253.8547982</v>
       </c>
       <c r="Q54">
@@ -4437,7 +4457,7 @@
         <v>1183572.1787292806</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55659.033087671334</v>
       </c>
       <c r="T54" s="4">
@@ -4445,7 +4465,7 @@
         <v>1239231.2118169519</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26645944.365106385</v>
       </c>
       <c r="W54">
@@ -4453,19 +4473,19 @@
       </c>
       <c r="X54" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y54" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z54" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA54" s="4">
         <f t="shared" si="14"/>
-        <v>25666666.666666698</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.25">
@@ -4473,7 +4493,7 @@
         <v>39</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D55" s="4">
@@ -4504,11 +4524,11 @@
         <v>2026781.4808196563</v>
       </c>
       <c r="L55" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695368</v>
+      </c>
+      <c r="M55" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695368</v>
-      </c>
-      <c r="M55" s="4">
-        <f t="shared" si="2"/>
         <v>345869759.17934829</v>
       </c>
       <c r="Q55">
@@ -4519,7 +4539,7 @@
         <v>1185939.3230867393</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53291.88873021277</v>
       </c>
       <c r="T55" s="4">
@@ -4527,7 +4547,7 @@
         <v>1239231.2118169521</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25460005.042019647</v>
       </c>
       <c r="W55">
@@ -4535,19 +4555,19 @@
       </c>
       <c r="X55" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y55" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z55" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA55" s="4">
         <f t="shared" si="14"/>
-        <v>24500000.00000003</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
@@ -4555,7 +4575,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D56" s="4">
@@ -4586,11 +4606,11 @@
         <v>2017573.5952128652</v>
       </c>
       <c r="L56" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695359</v>
+      </c>
+      <c r="M56" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695359</v>
-      </c>
-      <c r="M56" s="4">
-        <f t="shared" si="2"/>
         <v>344282056.61829162</v>
       </c>
       <c r="Q56">
@@ -4601,7 +4621,7 @@
         <v>1188311.2017329063</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50920.010084039292</v>
       </c>
       <c r="T56" s="4">
@@ -4609,7 +4629,7 @@
         <v>1239231.2118169456</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24271693.840286739</v>
       </c>
       <c r="W56">
@@ -4617,19 +4637,19 @@
       </c>
       <c r="X56" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y56" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z56" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA56" s="4">
         <f t="shared" si="14"/>
-        <v>23333333.333333362</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
@@ -4637,7 +4657,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D57" s="4">
@@ -4668,11 +4688,11 @@
         <v>2008311.9969400344</v>
       </c>
       <c r="L57" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695368</v>
+      </c>
+      <c r="M57" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695368</v>
-      </c>
-      <c r="M57" s="4">
-        <f t="shared" si="2"/>
         <v>342685092.45896214</v>
       </c>
       <c r="Q57">
@@ -4683,7 +4703,7 @@
         <v>1190687.8241363741</v>
       </c>
       <c r="S57" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48543.387680573476</v>
       </c>
       <c r="T57" s="4">
@@ -4691,7 +4711,7 @@
         <v>1239231.2118169474</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23081006.016150367</v>
       </c>
       <c r="W57">
@@ -4699,19 +4719,19 @@
       </c>
       <c r="X57" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y57" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z57" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA57" s="4">
         <f t="shared" si="14"/>
-        <v>22166666.666666694</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.25">
@@ -4719,7 +4739,7 @@
         <v>42</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D58" s="4">
@@ -4750,11 +4770,11 @@
         <v>1998996.3726772792</v>
       </c>
       <c r="L58" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695364</v>
+      </c>
+      <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695364</v>
-      </c>
-      <c r="M58" s="4">
-        <f t="shared" si="2"/>
         <v>341078812.67536986</v>
       </c>
       <c r="Q58">
@@ -4765,7 +4785,7 @@
         <v>1193069.1997846477</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46162.012032300736</v>
       </c>
       <c r="T58" s="4">
@@ -4773,7 +4793,7 @@
         <v>1239231.2118169484</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21887936.816365719</v>
       </c>
       <c r="W58">
@@ -4781,19 +4801,19 @@
       </c>
       <c r="X58" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y58" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z58" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA58" s="4">
         <f t="shared" si="14"/>
-        <v>21000000.000000026</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
@@ -4801,7 +4821,7 @@
         <v>43</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D59" s="4">
@@ -4832,11 +4852,11 @@
         <v>1989626.407272991</v>
       </c>
       <c r="L59" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695378</v>
+      </c>
+      <c r="M59" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695378</v>
-      </c>
-      <c r="M59" s="4">
-        <f t="shared" si="2"/>
         <v>339463162.9263733</v>
       </c>
       <c r="Q59">
@@ -4847,7 +4867,7 @@
         <v>1195455.3381842182</v>
       </c>
       <c r="S59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43775.87363273144</v>
       </c>
       <c r="T59" s="4">
@@ -4855,7 +4875,7 @@
         <v>1239231.2118169495</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20692481.4781815</v>
       </c>
       <c r="W59">
@@ -4863,19 +4883,19 @@
       </c>
       <c r="X59" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y59" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z59" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA59" s="4">
         <f t="shared" si="14"/>
-        <v>19833333.333333358</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.25">
@@ -4883,7 +4903,7 @@
         <v>44</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D60" s="4">
@@ -4914,11 +4934,11 @@
         <v>1980201.7837371777</v>
       </c>
       <c r="L60" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695368</v>
+      </c>
+      <c r="M60" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695368</v>
-      </c>
-      <c r="M60" s="4">
-        <f t="shared" si="2"/>
         <v>337838088.55384094</v>
       </c>
       <c r="Q60">
@@ -4929,7 +4949,7 @@
         <v>1197846.2488605797</v>
       </c>
       <c r="S60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41384.962956363001</v>
       </c>
       <c r="T60" s="4">
@@ -4937,7 +4957,7 @@
         <v>1239231.2118169428</v>
       </c>
       <c r="U60" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19494635.229320921</v>
       </c>
       <c r="W60">
@@ -4945,19 +4965,19 @@
       </c>
       <c r="X60" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y60" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z60" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA60" s="4">
         <f t="shared" si="14"/>
-        <v>18666666.66666669</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
@@ -4965,7 +4985,7 @@
         <v>45</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D61" s="4">
@@ -4996,11 +5016,11 @@
         <v>1970722.1832307389</v>
       </c>
       <c r="L61" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695368</v>
+      </c>
+      <c r="M61" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695368</v>
-      </c>
-      <c r="M61" s="4">
-        <f t="shared" si="2"/>
         <v>336203534.58080214</v>
       </c>
       <c r="Q61">
@@ -5011,7 +5031,7 @@
         <v>1200241.9413583037</v>
       </c>
       <c r="S61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38989.27045864184</v>
       </c>
       <c r="T61" s="4">
@@ -5019,7 +5039,7 @@
         <v>1239231.2118169456</v>
       </c>
       <c r="U61" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18294393.287962615</v>
       </c>
       <c r="W61">
@@ -5027,19 +5047,19 @@
       </c>
       <c r="X61" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y61" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z61" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA61" s="4">
         <f t="shared" si="14"/>
-        <v>17500000.000000022</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.25">
@@ -5047,7 +5067,7 @@
         <v>46</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D62" s="4">
@@ -5078,11 +5098,11 @@
         <v>1961187.2850546793</v>
       </c>
       <c r="L62" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695373</v>
+      </c>
+      <c r="M62" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695373</v>
-      </c>
-      <c r="M62" s="4">
-        <f t="shared" si="2"/>
         <v>334559445.70958728</v>
       </c>
       <c r="Q62">
@@ -5093,7 +5113,7 @@
         <v>1202642.4252410159</v>
       </c>
       <c r="S62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36588.786575925231</v>
       </c>
       <c r="T62" s="4">
@@ -5101,7 +5121,7 @@
         <v>1239231.2118169412</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17091750.8627216</v>
       </c>
       <c r="W62">
@@ -5109,19 +5129,19 @@
       </c>
       <c r="X62" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y62" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z62" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA62" s="4">
         <f t="shared" si="14"/>
-        <v>16333333.333333354</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.25">
@@ -5129,7 +5149,7 @@
         <v>47</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D63" s="4">
@@ -5160,11 +5180,11 @@
         <v>1951596.7666392592</v>
       </c>
       <c r="L63" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695373</v>
+      </c>
+      <c r="M63" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695373</v>
-      </c>
-      <c r="M63" s="4">
-        <f t="shared" si="2"/>
         <v>332905766.31995702</v>
       </c>
       <c r="Q63">
@@ -5175,7 +5195,7 @@
         <v>1205047.7100915108</v>
       </c>
       <c r="S63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34183.501725443202</v>
       </c>
       <c r="T63" s="4">
@@ -5183,7 +5203,7 @@
         <v>1239231.211816954</v>
       </c>
       <c r="U63" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15886703.152630089</v>
       </c>
       <c r="W63">
@@ -5191,19 +5211,19 @@
       </c>
       <c r="X63" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y63" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z63" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA63" s="4">
         <f t="shared" si="14"/>
-        <v>15166666.666666687</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.25">
@@ -5211,7 +5231,7 @@
         <v>48</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D64" s="4">
@@ -5242,11 +5262,11 @@
         <v>1941950.3035330826</v>
       </c>
       <c r="L64" s="4">
+        <f t="shared" si="0"/>
+        <v>3605276.1562695364</v>
+      </c>
+      <c r="M64" s="4">
         <f t="shared" si="1"/>
-        <v>3605276.1562695364</v>
-      </c>
-      <c r="M64" s="4">
-        <f t="shared" si="2"/>
         <v>331242440.46722054</v>
       </c>
       <c r="Q64">
@@ -5257,7 +5277,7 @@
         <v>1207457.8055116751</v>
       </c>
       <c r="S64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31773.406305260178</v>
       </c>
       <c r="T64" s="4">
@@ -5265,7 +5285,7 @@
         <v>1239231.2118169353</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14679245.347118413</v>
       </c>
       <c r="W64">
@@ -5273,19 +5293,19 @@
       </c>
       <c r="X64" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y64" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z64" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA64" s="4">
         <f t="shared" si="14"/>
-        <v>14000000.000000019</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
@@ -5293,7 +5313,7 @@
         <v>49</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D65" s="4">
@@ -5324,11 +5344,11 @@
         <v>1863238.7276281158</v>
       </c>
       <c r="L65" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673388</v>
+      </c>
+      <c r="M65" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673388</v>
-      </c>
-      <c r="M65" s="4">
-        <f t="shared" si="2"/>
         <v>329543668.3290813</v>
       </c>
       <c r="Q65">
@@ -5339,7 +5359,7 @@
         <v>1209872.7211227054</v>
       </c>
       <c r="S65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29358.490694236825</v>
       </c>
       <c r="T65" s="4">
@@ -5347,7 +5367,7 @@
         <v>1239231.2118169423</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13469372.625995707</v>
       </c>
       <c r="W65">
@@ -5355,19 +5375,19 @@
       </c>
       <c r="X65" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y65" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z65" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA65" s="4">
         <f t="shared" si="14"/>
-        <v>12833333.333333351</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
@@ -5375,7 +5395,7 @@
         <v>50</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D66" s="4">
@@ -5406,11 +5426,11 @@
         <v>1853683.1343510826</v>
       </c>
       <c r="L66" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673397</v>
+      </c>
+      <c r="M66" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673397</v>
-      </c>
-      <c r="M66" s="4">
-        <f t="shared" si="2"/>
         <v>327835340.59766501</v>
       </c>
       <c r="Q66">
@@ -5421,7 +5441,7 @@
         <v>1212292.4665649536</v>
       </c>
       <c r="S66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26938.745251991415</v>
       </c>
       <c r="T66" s="4">
@@ -5429,7 +5449,7 @@
         <v>1239231.2118169449</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12257080.159430753</v>
       </c>
       <c r="W66">
@@ -5437,19 +5457,19 @@
       </c>
       <c r="X66" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666681</v>
+        <v>1000000</v>
       </c>
       <c r="Y66" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z66" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666681</v>
+        <v>1120000</v>
       </c>
       <c r="AA66" s="4">
         <f t="shared" si="14"/>
-        <v>11666666.666666683</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">
@@ -5457,7 +5477,7 @@
         <v>51</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D67" s="4">
@@ -5488,11 +5508,11 @@
         <v>1844073.790861866</v>
       </c>
       <c r="L67" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673397</v>
+      </c>
+      <c r="M67" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673397</v>
-      </c>
-      <c r="M67" s="4">
-        <f t="shared" si="2"/>
         <v>326117403.52275956</v>
       </c>
       <c r="Q67">
@@ -5503,7 +5523,7 @@
         <v>1214717.051498085</v>
       </c>
       <c r="S67" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24514.160318861508</v>
       </c>
       <c r="T67" s="4">
@@ -5511,7 +5531,7 @@
         <v>1239231.2118169465</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11042363.107932668</v>
       </c>
       <c r="W67">
@@ -5519,19 +5539,19 @@
       </c>
       <c r="X67" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666684</v>
+        <v>1000000</v>
       </c>
       <c r="Y67" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z67" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666684</v>
+        <v>1120000</v>
       </c>
       <c r="AA67" s="4">
         <f t="shared" si="14"/>
-        <v>10500000.000000015</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
@@ -5539,7 +5559,7 @@
         <v>52</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D68" s="4">
@@ -5570,11 +5590,11 @@
         <v>1834410.3948155227</v>
       </c>
       <c r="L68" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673402</v>
+      </c>
+      <c r="M68" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673402</v>
-      </c>
-      <c r="M68" s="4">
-        <f t="shared" si="2"/>
         <v>324389803.05180776</v>
       </c>
       <c r="Q68">
@@ -5585,7 +5605,7 @@
         <v>1217146.4856010622</v>
       </c>
       <c r="S68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22084.726215865336</v>
       </c>
       <c r="T68" s="4">
@@ -5593,7 +5613,7 @@
         <v>1239231.2118169274</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9825216.6223316062</v>
       </c>
       <c r="W68">
@@ -5601,19 +5621,19 @@
       </c>
       <c r="X68" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666684</v>
+        <v>1000000</v>
       </c>
       <c r="Y68" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z68" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666684</v>
+        <v>1120000</v>
       </c>
       <c r="AA68" s="4">
         <f t="shared" si="14"/>
-        <v>9333333.333333347</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
@@ -5621,7 +5641,7 @@
         <v>53</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D69" s="4">
@@ -5652,11 +5672,11 @@
         <v>1824692.642166419</v>
       </c>
       <c r="L69" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673392</v>
+      </c>
+      <c r="M69" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673392</v>
-      </c>
-      <c r="M69" s="4">
-        <f t="shared" si="2"/>
         <v>322652484.82820684</v>
       </c>
       <c r="Q69">
@@ -5667,7 +5687,7 @@
         <v>1219580.7785722681</v>
       </c>
       <c r="S69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19650.433244663214</v>
       </c>
       <c r="T69" s="4">
@@ -5675,7 +5695,7 @@
         <v>1239231.2118169314</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8605635.8437593374</v>
       </c>
       <c r="W69">
@@ -5683,19 +5703,19 @@
       </c>
       <c r="X69" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666684</v>
+        <v>1000000</v>
       </c>
       <c r="Y69" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z69" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666684</v>
+        <v>1120000</v>
       </c>
       <c r="AA69" s="4">
         <f t="shared" si="14"/>
-        <v>8166666.6666666791</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.25">
@@ -5703,7 +5723,7 @@
         <v>54</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D70" s="4">
@@ -5734,11 +5754,11 @@
         <v>1814920.2271586636</v>
       </c>
       <c r="L70" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673397</v>
+      </c>
+      <c r="M70" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673397</v>
-      </c>
-      <c r="M70" s="4">
-        <f t="shared" si="2"/>
         <v>320905394.18959814</v>
       </c>
       <c r="Q70">
@@ -5749,7 +5769,7 @@
         <v>1222019.9401294272</v>
       </c>
       <c r="S70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17211.271687518674</v>
       </c>
       <c r="T70" s="4">
@@ -5757,7 +5777,7 @@
         <v>1239231.2118169458</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7383615.9036299102</v>
       </c>
       <c r="W70">
@@ -5765,19 +5785,19 @@
       </c>
       <c r="X70" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666684</v>
+        <v>1000000</v>
       </c>
       <c r="Y70" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z70" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666684</v>
+        <v>1120000</v>
       </c>
       <c r="AA70" s="4">
         <f t="shared" si="14"/>
-        <v>7000000.0000000112</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.25">
@@ -5785,7 +5805,7 @@
         <v>55</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D71" s="4">
@@ -5816,11 +5836,11 @@
         <v>1805092.8423164897</v>
       </c>
       <c r="L71" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673397</v>
+      </c>
+      <c r="M71" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673397</v>
-      </c>
-      <c r="M71" s="4">
-        <f t="shared" si="2"/>
         <v>319148476.16614729</v>
       </c>
       <c r="Q71">
@@ -5831,7 +5851,7 @@
         <v>1224463.9800096906</v>
       </c>
       <c r="S71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14767.231807259821</v>
       </c>
       <c r="T71" s="4">
@@ -5839,7 +5859,7 @@
         <v>1239231.2118169505</v>
       </c>
       <c r="U71" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6159151.9236202193</v>
       </c>
       <c r="W71">
@@ -5847,19 +5867,19 @@
       </c>
       <c r="X71" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666686</v>
+        <v>1000000</v>
       </c>
       <c r="Y71" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z71" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666686</v>
+        <v>1120000</v>
       </c>
       <c r="AA71" s="4">
         <f t="shared" si="14"/>
-        <v>5833333.3333333423</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
@@ -5867,7 +5887,7 @@
         <v>56</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D72" s="4">
@@ -5898,11 +5918,11 @@
         <v>1795210.1784345787</v>
       </c>
       <c r="L72" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673402</v>
+      </c>
+      <c r="M72" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673402</v>
-      </c>
-      <c r="M72" s="4">
-        <f t="shared" si="2"/>
         <v>317381675.47881454</v>
       </c>
       <c r="Q72">
@@ -5913,7 +5933,7 @@
         <v>1226912.9079696715</v>
       </c>
       <c r="S72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12318.303847240439</v>
       </c>
       <c r="T72" s="4">
@@ -5921,7 +5941,7 @@
         <v>1239231.2118169121</v>
       </c>
       <c r="U72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4932239.015650548</v>
       </c>
       <c r="W72">
@@ -5929,19 +5949,19 @@
       </c>
       <c r="X72" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666684</v>
+        <v>1000000</v>
       </c>
       <c r="Y72" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z72" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666684</v>
+        <v>1120000</v>
       </c>
       <c r="AA72" s="4">
         <f t="shared" si="14"/>
-        <v>4666666.6666666735</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
@@ -5949,7 +5969,7 @@
         <v>57</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D73" s="4">
@@ -5980,11 +6000,11 @@
         <v>1785271.924568332</v>
       </c>
       <c r="L73" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673388</v>
+      </c>
+      <c r="M73" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673388</v>
-      </c>
-      <c r="M73" s="4">
-        <f t="shared" si="2"/>
         <v>315604936.53761554</v>
       </c>
       <c r="Q73">
@@ -5995,7 +6015,7 @@
         <v>1229366.7337856302</v>
       </c>
       <c r="S73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9864.4780313010961</v>
       </c>
       <c r="T73" s="4">
@@ -6003,7 +6023,7 @@
         <v>1239231.2118169314</v>
       </c>
       <c r="U73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3702872.2818649178</v>
       </c>
       <c r="W73">
@@ -6011,19 +6031,19 @@
       </c>
       <c r="X73" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666684</v>
+        <v>1000000</v>
       </c>
       <c r="Y73" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z73" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666684</v>
+        <v>1120000</v>
       </c>
       <c r="AA73" s="4">
         <f t="shared" si="14"/>
-        <v>3500000.0000000051</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
@@ -6031,7 +6051,7 @@
         <v>58</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D74" s="4">
@@ -6062,11 +6082,11 @@
         <v>1775277.7680240877</v>
       </c>
       <c r="L74" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673406</v>
+      </c>
+      <c r="M74" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673406</v>
-      </c>
-      <c r="M74" s="4">
-        <f t="shared" si="2"/>
         <v>313818203.43987226</v>
       </c>
       <c r="Q74">
@@ -6077,7 +6097,7 @@
         <v>1231825.4672531874</v>
       </c>
       <c r="S74" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7405.744563729836</v>
       </c>
       <c r="T74" s="4">
@@ -6085,7 +6105,7 @@
         <v>1239231.2118169172</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2471046.8146117302</v>
       </c>
       <c r="W74">
@@ -6093,19 +6113,19 @@
       </c>
       <c r="X74" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666684</v>
+        <v>1000000</v>
       </c>
       <c r="Y74" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z74" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666684</v>
+        <v>1120000</v>
       </c>
       <c r="AA74" s="4">
         <f t="shared" si="14"/>
-        <v>2333333.3333333367</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.25">
@@ -6113,7 +6133,7 @@
         <v>59</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D75" s="4">
@@ -6144,11 +6164,11 @@
         <v>1765227.3943492817</v>
       </c>
       <c r="L75" s="4">
+        <f t="shared" si="0"/>
+        <v>3562010.8657673406</v>
+      </c>
+      <c r="M75" s="4">
         <f t="shared" si="1"/>
-        <v>3562010.8657673406</v>
-      </c>
-      <c r="M75" s="4">
-        <f t="shared" si="2"/>
         <v>312021419.96845418</v>
       </c>
       <c r="Q75">
@@ -6159,7 +6179,7 @@
         <v>1234289.1181876995</v>
       </c>
       <c r="S75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4942.0936292234601</v>
       </c>
       <c r="T75" s="4">
@@ -6167,7 +6187,7 @@
         <v>1239231.211816923</v>
       </c>
       <c r="U75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1236757.6964240307</v>
       </c>
       <c r="W75">
@@ -6175,19 +6195,19 @@
       </c>
       <c r="X75" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666684</v>
+        <v>1000000</v>
       </c>
       <c r="Y75" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z75" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666684</v>
+        <v>1120000</v>
       </c>
       <c r="AA75" s="4">
         <f t="shared" si="14"/>
-        <v>1166666.6666666684</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -6195,7 +6215,7 @@
         <v>60</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D76" s="4">
@@ -6226,7 +6246,7 @@
         <v>1755120.4873225549</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3562010.8657673402</v>
       </c>
       <c r="M76" s="4">
@@ -6241,7 +6261,7 @@
         <v>1236757.6964239979</v>
       </c>
       <c r="S76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2473.5153928480613</v>
       </c>
       <c r="T76" s="4">
@@ -6249,7 +6269,7 @@
         <v>1239231.2118168459</v>
       </c>
       <c r="U76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W76">
@@ -6257,15 +6277,15 @@
       </c>
       <c r="X76" s="2">
         <f t="shared" si="17"/>
-        <v>1166666.6666666684</v>
+        <v>1000000</v>
       </c>
       <c r="Y76" s="4">
         <f t="shared" si="12"/>
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="Z76" s="4">
         <f t="shared" si="13"/>
-        <v>1306666.6666666684</v>
+        <v>1120000</v>
       </c>
       <c r="AA76" s="4">
         <f t="shared" si="14"/>
@@ -6277,7 +6297,7 @@
         <v>61</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D77" s="4">
@@ -6308,7 +6328,7 @@
         <v>1680328.7019458842</v>
       </c>
       <c r="L77" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3522423.2339207749</v>
       </c>
       <c r="M77" s="4">
@@ -6323,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T77" s="4">
@@ -6331,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W77">
@@ -6359,7 +6379,7 @@
         <v>62</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D78" s="4">
@@ -6390,7 +6410,7 @@
         <v>1670350.6898976867</v>
       </c>
       <c r="L78" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3522423.2339207744</v>
       </c>
       <c r="M78" s="4">
@@ -6405,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="S78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T78" s="4">
@@ -6413,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W78">
@@ -6441,7 +6461,7 @@
         <v>63</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D79" s="4">
@@ -6472,7 +6492,7 @@
         <v>1660318.6302842284</v>
       </c>
       <c r="L79" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3522423.233920774</v>
       </c>
       <c r="M79" s="4">
@@ -6487,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="S79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T79" s="4">
@@ -6495,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W79">
@@ -6523,7 +6543,7 @@
         <v>64</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D80" s="4">
@@ -6554,7 +6574,7 @@
         <v>1650232.2303478636</v>
       </c>
       <c r="L80" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3522423.233920774</v>
       </c>
       <c r="M80" s="4">
@@ -6569,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="S80" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T80" s="4">
@@ -6577,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W80">
@@ -21042,6 +21062,2616 @@
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="Q2:U2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97179F46-FB26-4412-AC29-2F8BF0190259}">
+  <dimension ref="B2:X25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="18.28515625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2500000</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14">
+        <v>2500000</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="14">
+        <v>2500000</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="14">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <f>IFERROR(D2-D9, 0)</f>
+        <v>2246265.5834674854</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f>IF(J8/((1/J5)+J6)&gt;J2,J2,J8/((1/J5)+J6))</f>
+        <v>684098.51018546673</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f>P2-P9</f>
+        <v>1875000</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <f>V2-V8</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>12</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14">
+        <f>D5</f>
+        <v>12</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="14">
+        <f>J5</f>
+        <v>12</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="14">
+        <f>P5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2.63E-2</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <f>D6</f>
+        <v>2.63E-2</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5">
+        <f>J6</f>
+        <v>2.63E-2</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="5">
+        <f>P6</f>
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="14">
+        <v>500000</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="14">
+        <v>75000</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="14">
+        <v>25</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="14">
+        <v>500000</v>
+      </c>
+      <c r="W8" s="5">
+        <f>V8/V2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="14">
+        <f>(D8-(D2*((1/D5)+D6)))/(1-(1/D5)-D6)</f>
+        <v>253734.41653251473</v>
+      </c>
+      <c r="E9" s="16">
+        <f>D9/D2</f>
+        <v>0.1014937666130059</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="14">
+        <f>J2-J4</f>
+        <v>1815901.4898145334</v>
+      </c>
+      <c r="K9" s="5">
+        <f>J9/J2</f>
+        <v>0.72636059592581337</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="14">
+        <f>P2*P8/100</f>
+        <v>625000</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>P9/P2</f>
+        <v>0.25</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="14">
+        <f>V8/V2*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F13" s="14">
+        <f>$D$4</f>
+        <v>2246265.5834674854</v>
+      </c>
+      <c r="L13" s="14">
+        <f>J4</f>
+        <v>684098.51018546673</v>
+      </c>
+      <c r="R13" s="14">
+        <f>P4</f>
+        <v>1875000</v>
+      </c>
+      <c r="X13" s="14">
+        <f>V4</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
+        <f>IFERROR(F13/($D$5+1-B14),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D14" s="14">
+        <f>F13*$D$6</f>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E14" s="14">
+        <f>D14+C14</f>
+        <v>246265.58346748532</v>
+      </c>
+      <c r="F14" s="14">
+        <f>F13-C14</f>
+        <v>2059076.784845195</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
+        <f>IFERROR(L13/($J$5+1-H14),0)</f>
+        <v>57008.209182122228</v>
+      </c>
+      <c r="J14" s="14">
+        <f>$J$6*L13</f>
+        <v>17991.790817877776</v>
+      </c>
+      <c r="K14" s="14">
+        <f>I14+J14</f>
+        <v>75000</v>
+      </c>
+      <c r="L14" s="14">
+        <f>L13-I14</f>
+        <v>627090.30100334447</v>
+      </c>
+      <c r="N14" s="17">
+        <v>1</v>
+      </c>
+      <c r="O14" s="14">
+        <f>IFERROR(R13/($P$5+1-N14),0)</f>
+        <v>156250</v>
+      </c>
+      <c r="P14" s="14">
+        <f>$P$6*R13</f>
+        <v>49312.5</v>
+      </c>
+      <c r="Q14" s="14">
+        <f>O14+P14</f>
+        <v>205562.5</v>
+      </c>
+      <c r="R14" s="14">
+        <f>R13-O14</f>
+        <v>1718750</v>
+      </c>
+      <c r="T14" s="17">
+        <v>1</v>
+      </c>
+      <c r="U14" s="14">
+        <f>IFERROR(X13/($V$5+1-T14),0)</f>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V14" s="14">
+        <f>$V$6*X13</f>
+        <v>52600</v>
+      </c>
+      <c r="W14" s="14">
+        <f>U14+V14</f>
+        <v>219266.66666666666</v>
+      </c>
+      <c r="X14" s="14">
+        <f>X13-U14</f>
+        <v>1833333.3333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <f>B14+1</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="14">
+        <f>IFERROR(F14/($D$5+1-B15),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" ref="D15:D25" si="0">F14*$D$6</f>
+        <v>54153.719441428628</v>
+      </c>
+      <c r="E15" s="14">
+        <f>D15+C15</f>
+        <v>241342.51806371909</v>
+      </c>
+      <c r="F15" s="14">
+        <f>F14-C15</f>
+        <v>1871887.9862229046</v>
+      </c>
+      <c r="H15" s="17">
+        <f>H14+1</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" ref="I15:I25" si="1">IFERROR(L14/($J$5+1-H15),0)</f>
+        <v>57008.209182122228</v>
+      </c>
+      <c r="J15" s="14">
+        <f>$J$6*L14</f>
+        <v>16492.474916387961</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" ref="K15:K25" si="2">I15+J15</f>
+        <v>73500.684098510188</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" ref="L15:L25" si="3">L14-I15</f>
+        <v>570082.09182122222</v>
+      </c>
+      <c r="N15" s="17">
+        <f>N14+1</f>
+        <v>2</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" ref="O15:O25" si="4">IFERROR(R14/($P$5+1-N15),0)</f>
+        <v>156250</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" ref="P15:P25" si="5">$P$6*R14</f>
+        <v>45203.125</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" ref="Q15:Q25" si="6">O15+P15</f>
+        <v>201453.125</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" ref="R15:R25" si="7">R14-O15</f>
+        <v>1562500</v>
+      </c>
+      <c r="T15" s="17">
+        <f>T14+1</f>
+        <v>2</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" ref="U15:U25" si="8">IFERROR(X14/($V$5+1-T15),0)</f>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" ref="V15:V25" si="9">$V$6*X14</f>
+        <v>48216.666666666664</v>
+      </c>
+      <c r="W15" s="14">
+        <f t="shared" ref="W15:W25" si="10">U15+V15</f>
+        <v>214883.33333333331</v>
+      </c>
+      <c r="X15" s="14">
+        <f t="shared" ref="X15:X25" si="11">X14-U15</f>
+        <v>1666666.6666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <f>B15+1</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <f>IFERROR(F15/($D$5+1-B16),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="0"/>
+        <v>49230.654037662396</v>
+      </c>
+      <c r="E16" s="14">
+        <f>D16+C16</f>
+        <v>236419.45265995286</v>
+      </c>
+      <c r="F16" s="14">
+        <f>F15-C16</f>
+        <v>1684699.1876006143</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" ref="H16:H25" si="12">H15+1</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.20918212222</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" ref="J15:J25" si="13">$J$6*L15</f>
+        <v>14993.159014898145</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="2"/>
+        <v>72001.368197020362</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="3"/>
+        <v>513073.88263910002</v>
+      </c>
+      <c r="N16" s="17">
+        <f t="shared" ref="N16:N25" si="14">N15+1</f>
+        <v>3</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P16" s="14">
+        <f t="shared" si="5"/>
+        <v>41093.75</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="6"/>
+        <v>197343.75</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="7"/>
+        <v>1406250</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" ref="T16:T25" si="15">T15+1</f>
+        <v>3</v>
+      </c>
+      <c r="U16" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V16" s="14">
+        <f t="shared" si="9"/>
+        <v>43833.333333333328</v>
+      </c>
+      <c r="W16" s="14">
+        <f t="shared" si="10"/>
+        <v>210500</v>
+      </c>
+      <c r="X16" s="14">
+        <f t="shared" si="11"/>
+        <v>1499999.9999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <f>B16+1</f>
+        <v>4</v>
+      </c>
+      <c r="C17" s="14">
+        <f>IFERROR(F16/($D$5+1-B17),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="0"/>
+        <v>44307.588633896157</v>
+      </c>
+      <c r="E17" s="14">
+        <f>D17+C17</f>
+        <v>231496.38725618663</v>
+      </c>
+      <c r="F17" s="14">
+        <f>F16-C17</f>
+        <v>1497510.3889783239</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122228</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="13"/>
+        <v>13493.843113408331</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="2"/>
+        <v>70502.052295530564</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="3"/>
+        <v>456065.67345697782</v>
+      </c>
+      <c r="N17" s="17">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P17" s="14">
+        <f t="shared" si="5"/>
+        <v>36984.375</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="6"/>
+        <v>193234.375</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" si="7"/>
+        <v>1250000</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="U17" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666663</v>
+      </c>
+      <c r="V17" s="14">
+        <f t="shared" si="9"/>
+        <v>39449.999999999993</v>
+      </c>
+      <c r="W17" s="14">
+        <f t="shared" si="10"/>
+        <v>206116.66666666663</v>
+      </c>
+      <c r="X17" s="14">
+        <f t="shared" si="11"/>
+        <v>1333333.333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <f>B17+1</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="14">
+        <f>IFERROR(F17/($D$5+1-B18),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="0"/>
+        <v>39384.523230129918</v>
+      </c>
+      <c r="E18" s="14">
+        <f>D18+C18</f>
+        <v>226573.3218524204</v>
+      </c>
+      <c r="F18" s="14">
+        <f>F17-C18</f>
+        <v>1310321.5903560333</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122228</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="13"/>
+        <v>11994.527211918517</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="2"/>
+        <v>69002.736394040752</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="3"/>
+        <v>399057.46427485556</v>
+      </c>
+      <c r="N18" s="17">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P18" s="14">
+        <f t="shared" si="5"/>
+        <v>32875</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" si="6"/>
+        <v>189125</v>
+      </c>
+      <c r="R18" s="14">
+        <f t="shared" si="7"/>
+        <v>1093750</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="U18" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666663</v>
+      </c>
+      <c r="V18" s="14">
+        <f t="shared" si="9"/>
+        <v>35066.666666666657</v>
+      </c>
+      <c r="W18" s="14">
+        <f t="shared" si="10"/>
+        <v>201733.33333333328</v>
+      </c>
+      <c r="X18" s="14">
+        <f t="shared" si="11"/>
+        <v>1166666.6666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <f>B18+1</f>
+        <v>6</v>
+      </c>
+      <c r="C19" s="14">
+        <f>IFERROR(F18/($D$5+1-B19),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="0"/>
+        <v>34461.457826363679</v>
+      </c>
+      <c r="E19" s="14">
+        <f>D19+C19</f>
+        <v>221650.25644865414</v>
+      </c>
+      <c r="F19" s="14">
+        <f>F18-C19</f>
+        <v>1123132.7917337429</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="14">
+        <f>IFERROR(L18/($J$5+1-H19),0)</f>
+        <v>57008.20918212222</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="13"/>
+        <v>10495.211310428702</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="2"/>
+        <v>67503.420492550926</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="3"/>
+        <v>342049.25509273337</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P19" s="14">
+        <f t="shared" si="5"/>
+        <v>28765.625</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="6"/>
+        <v>185015.625</v>
+      </c>
+      <c r="R19" s="14">
+        <f t="shared" si="7"/>
+        <v>937500</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="U19" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="9"/>
+        <v>30683.333333333328</v>
+      </c>
+      <c r="W19" s="14">
+        <f t="shared" si="10"/>
+        <v>197350</v>
+      </c>
+      <c r="X19" s="14">
+        <f t="shared" si="11"/>
+        <v>999999.99999999988</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <f>B19+1</f>
+        <v>7</v>
+      </c>
+      <c r="C20" s="14">
+        <f>IFERROR(F19/($D$5+1-B20),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="0"/>
+        <v>29538.392422597441</v>
+      </c>
+      <c r="E20" s="14">
+        <f>D20+C20</f>
+        <v>216727.19104488794</v>
+      </c>
+      <c r="F20" s="14">
+        <f>F19-C20</f>
+        <v>935943.99311145244</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122228</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="13"/>
+        <v>8995.8954089388881</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="2"/>
+        <v>66004.104591061114</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="3"/>
+        <v>285041.04591061117</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P20" s="14">
+        <f t="shared" si="5"/>
+        <v>24656.25</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" si="6"/>
+        <v>180906.25</v>
+      </c>
+      <c r="R20" s="14">
+        <f t="shared" si="7"/>
+        <v>781250</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="U20" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V20" s="14">
+        <f t="shared" si="9"/>
+        <v>26299.999999999996</v>
+      </c>
+      <c r="W20" s="14">
+        <f t="shared" si="10"/>
+        <v>192966.66666666666</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="11"/>
+        <v>833333.33333333326</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <f>B20+1</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="14">
+        <f>IFERROR(F20/($D$5+1-B21),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="0"/>
+        <v>24615.327018831198</v>
+      </c>
+      <c r="E21" s="14">
+        <f>D21+C21</f>
+        <v>211804.12564112167</v>
+      </c>
+      <c r="F21" s="14">
+        <f>F20-C21</f>
+        <v>748755.19448916195</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122235</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="13"/>
+        <v>7496.5795074490734</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="2"/>
+        <v>64504.788689571309</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="3"/>
+        <v>228032.83672848894</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" si="5"/>
+        <v>20546.875</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="6"/>
+        <v>176796.875</v>
+      </c>
+      <c r="R21" s="14">
+        <f t="shared" si="7"/>
+        <v>625000</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="U21" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V21" s="14">
+        <f t="shared" si="9"/>
+        <v>21916.666666666664</v>
+      </c>
+      <c r="W21" s="14">
+        <f t="shared" si="10"/>
+        <v>188583.33333333331</v>
+      </c>
+      <c r="X21" s="14">
+        <f t="shared" si="11"/>
+        <v>666666.66666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
+        <f>B21+1</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="14">
+        <f>IFERROR(F21/($D$5+1-B22),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="0"/>
+        <v>19692.261615064959</v>
+      </c>
+      <c r="E22" s="14">
+        <f>D22+C22</f>
+        <v>206881.06023735544</v>
+      </c>
+      <c r="F22" s="14">
+        <f>F21-C22</f>
+        <v>561566.39586687146</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122235</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="13"/>
+        <v>5997.2636059592596</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="2"/>
+        <v>63005.472788081497</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="3"/>
+        <v>171024.62754636671</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="5"/>
+        <v>16437.5</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="6"/>
+        <v>172687.5</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="7"/>
+        <v>468750</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="U22" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V22" s="14">
+        <f t="shared" si="9"/>
+        <v>17533.333333333332</v>
+      </c>
+      <c r="W22" s="14">
+        <f t="shared" si="10"/>
+        <v>184200</v>
+      </c>
+      <c r="X22" s="14">
+        <f t="shared" si="11"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <f>B22+1</f>
+        <v>10</v>
+      </c>
+      <c r="C23" s="14">
+        <f>IFERROR(F22/($D$5+1-B23),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="0"/>
+        <v>14769.19621129872</v>
+      </c>
+      <c r="E23" s="14">
+        <f>D23+C23</f>
+        <v>201957.99483358921</v>
+      </c>
+      <c r="F23" s="14">
+        <f>F22-C23</f>
+        <v>374377.59724458097</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122235</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="13"/>
+        <v>4497.9477044694449</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="2"/>
+        <v>61506.156886591678</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="3"/>
+        <v>114016.41836424448</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P23" s="14">
+        <f t="shared" si="5"/>
+        <v>12328.125</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="6"/>
+        <v>168578.125</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="7"/>
+        <v>312500</v>
+      </c>
+      <c r="T23" s="17">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="U23" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V23" s="14">
+        <f t="shared" si="9"/>
+        <v>13150</v>
+      </c>
+      <c r="W23" s="14">
+        <f t="shared" si="10"/>
+        <v>179816.66666666666</v>
+      </c>
+      <c r="X23" s="14">
+        <f t="shared" si="11"/>
+        <v>333333.33333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
+        <f>B23+1</f>
+        <v>11</v>
+      </c>
+      <c r="C24" s="14">
+        <f>IFERROR(F23/($D$5+1-B24),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="0"/>
+        <v>9846.1308075324796</v>
+      </c>
+      <c r="E24" s="14">
+        <f>D24+C24</f>
+        <v>197034.92942982298</v>
+      </c>
+      <c r="F24" s="14">
+        <f>F23-C24</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122242</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="13"/>
+        <v>2998.6318029796298</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="2"/>
+        <v>60006.840985101873</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="3"/>
+        <v>57008.209182122242</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="O24" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P24" s="14">
+        <f t="shared" si="5"/>
+        <v>8218.75</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" si="6"/>
+        <v>164468.75</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" si="7"/>
+        <v>156250</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="U24" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666669</v>
+      </c>
+      <c r="V24" s="14">
+        <f t="shared" si="9"/>
+        <v>8766.6666666666679</v>
+      </c>
+      <c r="W24" s="14">
+        <f t="shared" si="10"/>
+        <v>175433.33333333334</v>
+      </c>
+      <c r="X24" s="14">
+        <f t="shared" si="11"/>
+        <v>166666.66666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
+        <f>B24+1</f>
+        <v>12</v>
+      </c>
+      <c r="C25" s="14">
+        <f>IFERROR(F24/($D$5+1-B25),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="0"/>
+        <v>4923.0654037662398</v>
+      </c>
+      <c r="E25" s="14">
+        <f>D25+C25</f>
+        <v>192111.86402605672</v>
+      </c>
+      <c r="F25" s="14">
+        <f>F24-C25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122242</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="13"/>
+        <v>1499.3159014898149</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="2"/>
+        <v>58507.525083612054</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" si="5"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="6"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="U25" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666669</v>
+      </c>
+      <c r="V25" s="14">
+        <f t="shared" si="9"/>
+        <v>4383.3333333333339</v>
+      </c>
+      <c r="W25" s="14">
+        <f t="shared" si="10"/>
+        <v>171050.00000000003</v>
+      </c>
+      <c r="X25" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED6B404-8E76-4D4A-9936-D52EBB81609B}">
+  <dimension ref="B2:X25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="18.28515625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2500000</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14">
+        <v>2500000</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="14">
+        <v>2500000</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="14">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <f>IFERROR(D2-D9, 0)</f>
+        <v>2246265.5834674854</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f>IF(J8/((1/J5)+J6)&gt;J2,J2,J8/((1/J5)+J6))</f>
+        <v>684098.51018546673</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f>P2-P9</f>
+        <v>1875000</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <f>V2-V8</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>12</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14">
+        <f>D5</f>
+        <v>12</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="14">
+        <f>J5</f>
+        <v>12</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="14">
+        <f>P5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2.63E-2</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <f>D6</f>
+        <v>2.63E-2</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5">
+        <f>J6</f>
+        <v>2.63E-2</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="5">
+        <f>P6</f>
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="14">
+        <v>500000</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="14">
+        <v>75000</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="14">
+        <v>25</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="14">
+        <v>500000</v>
+      </c>
+      <c r="W8" s="5">
+        <f>V8/V2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="14">
+        <f>(D8-(D2*((1/D5)+D6)))/(1-(1/D5)-D6)</f>
+        <v>253734.41653251473</v>
+      </c>
+      <c r="E9" s="16">
+        <f>D9/D2</f>
+        <v>0.1014937666130059</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="14">
+        <f>J2-J4</f>
+        <v>1815901.4898145334</v>
+      </c>
+      <c r="K9" s="5">
+        <f>J9/J2</f>
+        <v>0.72636059592581337</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="14">
+        <f>P2*P8/100</f>
+        <v>625000</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>P9/P2</f>
+        <v>0.25</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="14">
+        <f>V8/V2*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F13" s="14">
+        <f>$D$4</f>
+        <v>2246265.5834674854</v>
+      </c>
+      <c r="L13" s="14">
+        <f>J4</f>
+        <v>684098.51018546673</v>
+      </c>
+      <c r="R13" s="14">
+        <f>P4</f>
+        <v>1875000</v>
+      </c>
+      <c r="X13" s="14">
+        <f>V4</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
+        <f>IFERROR(F13/($D$5+1-B14),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D14" s="14">
+        <f>F13*$D$6</f>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E14" s="14">
+        <f>D14+C14</f>
+        <v>246265.58346748532</v>
+      </c>
+      <c r="F14" s="14">
+        <f>F13-C14</f>
+        <v>2059076.784845195</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
+        <f>IFERROR(L13/($J$5+1-H14),0)</f>
+        <v>57008.209182122228</v>
+      </c>
+      <c r="J14" s="14">
+        <f>$J$6*L13</f>
+        <v>17991.790817877776</v>
+      </c>
+      <c r="K14" s="14">
+        <f>I14+J14</f>
+        <v>75000</v>
+      </c>
+      <c r="L14" s="14">
+        <f>L13-I14</f>
+        <v>627090.30100334447</v>
+      </c>
+      <c r="N14" s="17">
+        <v>1</v>
+      </c>
+      <c r="O14" s="14">
+        <f>IFERROR(R13/($P$5+1-N14),0)</f>
+        <v>156250</v>
+      </c>
+      <c r="P14" s="14">
+        <f>$P$6*R13</f>
+        <v>49312.5</v>
+      </c>
+      <c r="Q14" s="14">
+        <f>O14+P14</f>
+        <v>205562.5</v>
+      </c>
+      <c r="R14" s="14">
+        <f>R13-O14</f>
+        <v>1718750</v>
+      </c>
+      <c r="T14" s="17">
+        <v>1</v>
+      </c>
+      <c r="U14" s="14">
+        <f>IFERROR(X13/($V$5+1-T14),0)</f>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V14" s="14">
+        <f>$V$6*X13</f>
+        <v>52600</v>
+      </c>
+      <c r="W14" s="14">
+        <f>U14+V14</f>
+        <v>219266.66666666666</v>
+      </c>
+      <c r="X14" s="14">
+        <f>X13-U14</f>
+        <v>1833333.3333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <f>B14+1</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="14">
+        <f>IFERROR(F14/($D$5+1-B15),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" ref="D15:D25" si="0">F14*$D$6</f>
+        <v>54153.719441428628</v>
+      </c>
+      <c r="E15" s="14">
+        <f>D15+C15</f>
+        <v>241342.51806371909</v>
+      </c>
+      <c r="F15" s="14">
+        <f>F14-C15</f>
+        <v>1871887.9862229046</v>
+      </c>
+      <c r="H15" s="17">
+        <f>H14+1</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" ref="I15:I25" si="1">IFERROR(L14/($J$5+1-H15),0)</f>
+        <v>57008.209182122228</v>
+      </c>
+      <c r="J15" s="14">
+        <f>$J$6*L14</f>
+        <v>16492.474916387961</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" ref="K15:K25" si="2">I15+J15</f>
+        <v>73500.684098510188</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" ref="L15:L25" si="3">L14-I15</f>
+        <v>570082.09182122222</v>
+      </c>
+      <c r="N15" s="17">
+        <f>N14+1</f>
+        <v>2</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" ref="O15:O25" si="4">IFERROR(R14/($P$5+1-N15),0)</f>
+        <v>156250</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" ref="P15:P25" si="5">$P$6*R14</f>
+        <v>45203.125</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" ref="Q15:Q25" si="6">O15+P15</f>
+        <v>201453.125</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" ref="R15:R25" si="7">R14-O15</f>
+        <v>1562500</v>
+      </c>
+      <c r="T15" s="17">
+        <f>T14+1</f>
+        <v>2</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" ref="U15:U25" si="8">IFERROR(X14/($V$5+1-T15),0)</f>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" ref="V15:V25" si="9">$V$6*X14</f>
+        <v>48216.666666666664</v>
+      </c>
+      <c r="W15" s="14">
+        <f t="shared" ref="W15:W25" si="10">U15+V15</f>
+        <v>214883.33333333331</v>
+      </c>
+      <c r="X15" s="14">
+        <f t="shared" ref="X15:X25" si="11">X14-U15</f>
+        <v>1666666.6666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <f>B15+1</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <f>IFERROR(F15/($D$5+1-B16),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="0"/>
+        <v>49230.654037662396</v>
+      </c>
+      <c r="E16" s="14">
+        <f>D16+C16</f>
+        <v>236419.45265995286</v>
+      </c>
+      <c r="F16" s="14">
+        <f>F15-C16</f>
+        <v>1684699.1876006143</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" ref="H16:H25" si="12">H15+1</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.20918212222</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" ref="J16:J26" si="13">$J$6*L15</f>
+        <v>14993.159014898145</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="2"/>
+        <v>72001.368197020362</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="3"/>
+        <v>513073.88263910002</v>
+      </c>
+      <c r="N16" s="17">
+        <f t="shared" ref="N16:N25" si="14">N15+1</f>
+        <v>3</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P16" s="14">
+        <f t="shared" si="5"/>
+        <v>41093.75</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="6"/>
+        <v>197343.75</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="7"/>
+        <v>1406250</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" ref="T16:T25" si="15">T15+1</f>
+        <v>3</v>
+      </c>
+      <c r="U16" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V16" s="14">
+        <f t="shared" si="9"/>
+        <v>43833.333333333328</v>
+      </c>
+      <c r="W16" s="14">
+        <f t="shared" si="10"/>
+        <v>210500</v>
+      </c>
+      <c r="X16" s="14">
+        <f t="shared" si="11"/>
+        <v>1499999.9999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <f>B16+1</f>
+        <v>4</v>
+      </c>
+      <c r="C17" s="14">
+        <f>IFERROR(F16/($D$5+1-B17),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="0"/>
+        <v>44307.588633896157</v>
+      </c>
+      <c r="E17" s="14">
+        <f>D17+C17</f>
+        <v>231496.38725618663</v>
+      </c>
+      <c r="F17" s="14">
+        <f>F16-C17</f>
+        <v>1497510.3889783239</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122228</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="13"/>
+        <v>13493.843113408331</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="2"/>
+        <v>70502.052295530564</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="3"/>
+        <v>456065.67345697782</v>
+      </c>
+      <c r="N17" s="17">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P17" s="14">
+        <f t="shared" si="5"/>
+        <v>36984.375</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="6"/>
+        <v>193234.375</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" si="7"/>
+        <v>1250000</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="U17" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666663</v>
+      </c>
+      <c r="V17" s="14">
+        <f t="shared" si="9"/>
+        <v>39449.999999999993</v>
+      </c>
+      <c r="W17" s="14">
+        <f t="shared" si="10"/>
+        <v>206116.66666666663</v>
+      </c>
+      <c r="X17" s="14">
+        <f t="shared" si="11"/>
+        <v>1333333.333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <f>B17+1</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="14">
+        <f>IFERROR(F17/($D$5+1-B18),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="0"/>
+        <v>39384.523230129918</v>
+      </c>
+      <c r="E18" s="14">
+        <f>D18+C18</f>
+        <v>226573.3218524204</v>
+      </c>
+      <c r="F18" s="14">
+        <f>F17-C18</f>
+        <v>1310321.5903560333</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122228</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="13"/>
+        <v>11994.527211918517</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="2"/>
+        <v>69002.736394040752</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="3"/>
+        <v>399057.46427485556</v>
+      </c>
+      <c r="N18" s="17">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P18" s="14">
+        <f t="shared" si="5"/>
+        <v>32875</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" si="6"/>
+        <v>189125</v>
+      </c>
+      <c r="R18" s="14">
+        <f t="shared" si="7"/>
+        <v>1093750</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="U18" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666663</v>
+      </c>
+      <c r="V18" s="14">
+        <f t="shared" si="9"/>
+        <v>35066.666666666657</v>
+      </c>
+      <c r="W18" s="14">
+        <f t="shared" si="10"/>
+        <v>201733.33333333328</v>
+      </c>
+      <c r="X18" s="14">
+        <f t="shared" si="11"/>
+        <v>1166666.6666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <f>B18+1</f>
+        <v>6</v>
+      </c>
+      <c r="C19" s="14">
+        <f>IFERROR(F18/($D$5+1-B19),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="0"/>
+        <v>34461.457826363679</v>
+      </c>
+      <c r="E19" s="14">
+        <f>D19+C19</f>
+        <v>221650.25644865414</v>
+      </c>
+      <c r="F19" s="14">
+        <f>F18-C19</f>
+        <v>1123132.7917337429</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="14">
+        <f>IFERROR(L18/($J$5+1-H19),0)</f>
+        <v>57008.20918212222</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="13"/>
+        <v>10495.211310428702</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="2"/>
+        <v>67503.420492550926</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="3"/>
+        <v>342049.25509273337</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P19" s="14">
+        <f t="shared" si="5"/>
+        <v>28765.625</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="6"/>
+        <v>185015.625</v>
+      </c>
+      <c r="R19" s="14">
+        <f t="shared" si="7"/>
+        <v>937500</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="U19" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="9"/>
+        <v>30683.333333333328</v>
+      </c>
+      <c r="W19" s="14">
+        <f t="shared" si="10"/>
+        <v>197350</v>
+      </c>
+      <c r="X19" s="14">
+        <f t="shared" si="11"/>
+        <v>999999.99999999988</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <f>B19+1</f>
+        <v>7</v>
+      </c>
+      <c r="C20" s="14">
+        <f>IFERROR(F19/($D$5+1-B20),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="0"/>
+        <v>29538.392422597441</v>
+      </c>
+      <c r="E20" s="14">
+        <f>D20+C20</f>
+        <v>216727.19104488794</v>
+      </c>
+      <c r="F20" s="14">
+        <f>F19-C20</f>
+        <v>935943.99311145244</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122228</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="13"/>
+        <v>8995.8954089388881</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="2"/>
+        <v>66004.104591061114</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="3"/>
+        <v>285041.04591061117</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P20" s="14">
+        <f t="shared" si="5"/>
+        <v>24656.25</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" si="6"/>
+        <v>180906.25</v>
+      </c>
+      <c r="R20" s="14">
+        <f t="shared" si="7"/>
+        <v>781250</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="U20" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V20" s="14">
+        <f t="shared" si="9"/>
+        <v>26299.999999999996</v>
+      </c>
+      <c r="W20" s="14">
+        <f t="shared" si="10"/>
+        <v>192966.66666666666</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="11"/>
+        <v>833333.33333333326</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <f>B20+1</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="14">
+        <f>IFERROR(F20/($D$5+1-B21),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="0"/>
+        <v>24615.327018831198</v>
+      </c>
+      <c r="E21" s="14">
+        <f>D21+C21</f>
+        <v>211804.12564112167</v>
+      </c>
+      <c r="F21" s="14">
+        <f>F20-C21</f>
+        <v>748755.19448916195</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122235</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="13"/>
+        <v>7496.5795074490734</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="2"/>
+        <v>64504.788689571309</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="3"/>
+        <v>228032.83672848894</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" si="5"/>
+        <v>20546.875</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="6"/>
+        <v>176796.875</v>
+      </c>
+      <c r="R21" s="14">
+        <f t="shared" si="7"/>
+        <v>625000</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="U21" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V21" s="14">
+        <f t="shared" si="9"/>
+        <v>21916.666666666664</v>
+      </c>
+      <c r="W21" s="14">
+        <f t="shared" si="10"/>
+        <v>188583.33333333331</v>
+      </c>
+      <c r="X21" s="14">
+        <f t="shared" si="11"/>
+        <v>666666.66666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
+        <f>B21+1</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="14">
+        <f>IFERROR(F21/($D$5+1-B22),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="0"/>
+        <v>19692.261615064959</v>
+      </c>
+      <c r="E22" s="14">
+        <f>D22+C22</f>
+        <v>206881.06023735544</v>
+      </c>
+      <c r="F22" s="14">
+        <f>F21-C22</f>
+        <v>561566.39586687146</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122235</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="13"/>
+        <v>5997.2636059592596</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="2"/>
+        <v>63005.472788081497</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="3"/>
+        <v>171024.62754636671</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="5"/>
+        <v>16437.5</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="6"/>
+        <v>172687.5</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="7"/>
+        <v>468750</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="U22" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V22" s="14">
+        <f t="shared" si="9"/>
+        <v>17533.333333333332</v>
+      </c>
+      <c r="W22" s="14">
+        <f t="shared" si="10"/>
+        <v>184200</v>
+      </c>
+      <c r="X22" s="14">
+        <f t="shared" si="11"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <f>B22+1</f>
+        <v>10</v>
+      </c>
+      <c r="C23" s="14">
+        <f>IFERROR(F22/($D$5+1-B23),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="0"/>
+        <v>14769.19621129872</v>
+      </c>
+      <c r="E23" s="14">
+        <f>D23+C23</f>
+        <v>201957.99483358921</v>
+      </c>
+      <c r="F23" s="14">
+        <f>F22-C23</f>
+        <v>374377.59724458097</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122235</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="13"/>
+        <v>4497.9477044694449</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="2"/>
+        <v>61506.156886591678</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="3"/>
+        <v>114016.41836424448</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P23" s="14">
+        <f t="shared" si="5"/>
+        <v>12328.125</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="6"/>
+        <v>168578.125</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="7"/>
+        <v>312500</v>
+      </c>
+      <c r="T23" s="17">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="U23" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V23" s="14">
+        <f t="shared" si="9"/>
+        <v>13150</v>
+      </c>
+      <c r="W23" s="14">
+        <f t="shared" si="10"/>
+        <v>179816.66666666666</v>
+      </c>
+      <c r="X23" s="14">
+        <f t="shared" si="11"/>
+        <v>333333.33333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
+        <f>B23+1</f>
+        <v>11</v>
+      </c>
+      <c r="C24" s="14">
+        <f>IFERROR(F23/($D$5+1-B24),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="0"/>
+        <v>9846.1308075324796</v>
+      </c>
+      <c r="E24" s="14">
+        <f>D24+C24</f>
+        <v>197034.92942982298</v>
+      </c>
+      <c r="F24" s="14">
+        <f>F23-C24</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122242</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="13"/>
+        <v>2998.6318029796298</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="2"/>
+        <v>60006.840985101873</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="3"/>
+        <v>57008.209182122242</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="O24" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P24" s="14">
+        <f t="shared" si="5"/>
+        <v>8218.75</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" si="6"/>
+        <v>164468.75</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" si="7"/>
+        <v>156250</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="U24" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666669</v>
+      </c>
+      <c r="V24" s="14">
+        <f t="shared" si="9"/>
+        <v>8766.6666666666679</v>
+      </c>
+      <c r="W24" s="14">
+        <f t="shared" si="10"/>
+        <v>175433.33333333334</v>
+      </c>
+      <c r="X24" s="14">
+        <f t="shared" si="11"/>
+        <v>166666.66666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
+        <f>B24+1</f>
+        <v>12</v>
+      </c>
+      <c r="C25" s="14">
+        <f>IFERROR(F24/($D$5+1-B25),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="0"/>
+        <v>4923.0654037662398</v>
+      </c>
+      <c r="E25" s="14">
+        <f>D25+C25</f>
+        <v>192111.86402605672</v>
+      </c>
+      <c r="F25" s="14">
+        <f>F24-C25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>57008.209182122242</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="13"/>
+        <v>1499.3159014898149</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="2"/>
+        <v>58507.525083612054</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="4"/>
+        <v>156250</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" si="5"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="6"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="U25" s="14">
+        <f t="shared" si="8"/>
+        <v>166666.66666666669</v>
+      </c>
+      <c r="V25" s="14">
+        <f t="shared" si="9"/>
+        <v>4383.3333333333339</v>
+      </c>
+      <c r="W25" s="14">
+        <f t="shared" si="10"/>
+        <v>171050.00000000003</v>
+      </c>
+      <c r="X25" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26033,7 +28663,7 @@
   <dimension ref="A2:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27968,7 +30598,7 @@
   <dimension ref="B2:G256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64277,4 +66907,1309 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAAE4CA-F14A-49F6-99FA-7E713421ED81}">
+  <dimension ref="B2:X25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="18.28515625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2500000</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14">
+        <v>2500000</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="14">
+        <v>2500000</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="14">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <f>IFERROR(D2-D9, 0)</f>
+        <v>2246265.5834674854</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f>IF(((J8*J5)/(1+J6))&gt;J2,J2,((J8*J5)/(1+J6)))</f>
+        <v>876936.56825489621</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f>P2-P9</f>
+        <v>1875000</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <f>V2-V8</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>12</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14">
+        <f>D5</f>
+        <v>12</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="14">
+        <f>J5</f>
+        <v>12</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="14">
+        <f>P5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2.63E-2</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <f>D6</f>
+        <v>2.63E-2</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5">
+        <f>J6</f>
+        <v>2.63E-2</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="5">
+        <f>P6</f>
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="14">
+        <v>500000</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="14">
+        <v>75000</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="14">
+        <v>25</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="14">
+        <v>500000</v>
+      </c>
+      <c r="W8" s="5">
+        <f>V8/V2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="14">
+        <f>IF((D8-(D2*((1/D5)+D6)))/(1-(1/D5)-D6)&gt;0,(D8-(D2*((1/D5)+D6)))/(1-(1/D5)-D6),0)</f>
+        <v>253734.41653251473</v>
+      </c>
+      <c r="E9" s="16">
+        <f>D9/D2</f>
+        <v>0.1014937666130059</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="14">
+        <f>J2-J4</f>
+        <v>1623063.4317451038</v>
+      </c>
+      <c r="K9" s="5">
+        <f>J9/J2</f>
+        <v>0.64922537269804148</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="14">
+        <f>P2*P8/100</f>
+        <v>625000</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>P9/P2</f>
+        <v>0.25</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="14">
+        <f>V8/V2*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F13" s="14">
+        <f>$D$4</f>
+        <v>2246265.5834674854</v>
+      </c>
+      <c r="L13" s="14">
+        <f>J4</f>
+        <v>876936.56825489621</v>
+      </c>
+      <c r="R13" s="14">
+        <f>P4</f>
+        <v>1875000</v>
+      </c>
+      <c r="X13" s="14">
+        <f>V4</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
+        <f>IFERROR(F13/($D$5+1-B14),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D14" s="14">
+        <f>$D$4*$D$6</f>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E14" s="14">
+        <f>D14+C14</f>
+        <v>246265.58346748532</v>
+      </c>
+      <c r="F14" s="14">
+        <f>F13-C14</f>
+        <v>2059076.784845195</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
+        <f>IFERROR(L13/($J$5+1-H14),0)</f>
+        <v>73078.047354574679</v>
+      </c>
+      <c r="J14" s="14">
+        <f>I14*$J$6</f>
+        <v>1921.9526454253141</v>
+      </c>
+      <c r="K14" s="14">
+        <f>I14+J14</f>
+        <v>75000</v>
+      </c>
+      <c r="L14" s="14">
+        <f>L13-I14</f>
+        <v>803858.52090032154</v>
+      </c>
+      <c r="N14" s="14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="14">
+        <f>IFERROR(R13/($P$5+1-N14),0)</f>
+        <v>156250</v>
+      </c>
+      <c r="P14" s="14">
+        <f>O14*$P$6</f>
+        <v>4109.375</v>
+      </c>
+      <c r="Q14" s="14">
+        <f>O14+P14</f>
+        <v>160359.375</v>
+      </c>
+      <c r="R14" s="14">
+        <f>R13-O14</f>
+        <v>1718750</v>
+      </c>
+      <c r="T14" s="14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="14">
+        <f>IFERROR(X13/($V$5+1-T14),0)</f>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V14" s="14">
+        <f>U14*$P$6</f>
+        <v>4383.333333333333</v>
+      </c>
+      <c r="W14" s="14">
+        <f>U14+V14</f>
+        <v>171050</v>
+      </c>
+      <c r="X14" s="14">
+        <f>X13-U14</f>
+        <v>1833333.3333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <f>B14+1</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="14">
+        <f>IFERROR(F14/($D$5+1-B15),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" ref="D15:D25" si="0">$D$4*$D$6</f>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E15" s="14">
+        <f>D15+C15</f>
+        <v>246265.58346748532</v>
+      </c>
+      <c r="F15" s="14">
+        <f>F14-C15</f>
+        <v>1871887.9862229046</v>
+      </c>
+      <c r="H15" s="17">
+        <f>H14+1</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" ref="I15:I25" si="1">IFERROR(L14/($J$5+1-H15),0)</f>
+        <v>73078.047354574679</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" ref="J15:J25" si="2">I15*$J$6</f>
+        <v>1921.9526454253141</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" ref="K15:K25" si="3">I15+J15</f>
+        <v>75000</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" ref="L15:L25" si="4">L14-I15</f>
+        <v>730780.47354574688</v>
+      </c>
+      <c r="N15" s="14">
+        <f>N14+1</f>
+        <v>2</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" ref="O15:O25" si="5">IFERROR(R14/($P$5+1-N15),0)</f>
+        <v>156250</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" ref="P15:P25" si="6">O15*$P$6</f>
+        <v>4109.375</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" ref="Q15:Q25" si="7">O15+P15</f>
+        <v>160359.375</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" ref="R15:R25" si="8">R14-O15</f>
+        <v>1562500</v>
+      </c>
+      <c r="T15" s="14">
+        <f>T14+1</f>
+        <v>2</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" ref="U15:U25" si="9">IFERROR(X14/($V$5+1-T15),0)</f>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" ref="V15:V25" si="10">U15*$P$6</f>
+        <v>4383.333333333333</v>
+      </c>
+      <c r="W15" s="14">
+        <f t="shared" ref="W15:W25" si="11">U15+V15</f>
+        <v>171050</v>
+      </c>
+      <c r="X15" s="14">
+        <f t="shared" ref="X15:X25" si="12">X14-U15</f>
+        <v>1666666.6666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <f>B15+1</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <f>IFERROR(F15/($D$5+1-B16),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="0"/>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E16" s="14">
+        <f>D16+C16</f>
+        <v>246265.58346748532</v>
+      </c>
+      <c r="F16" s="14">
+        <f>F15-C16</f>
+        <v>1684699.1876006143</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" ref="H16:H25" si="13">H15+1</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>73078.047354574694</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="2"/>
+        <v>1921.9526454253146</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="3"/>
+        <v>75000.000000000015</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="4"/>
+        <v>657702.42619117221</v>
+      </c>
+      <c r="N16" s="14">
+        <f t="shared" ref="N16:N25" si="14">N15+1</f>
+        <v>3</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="5"/>
+        <v>156250</v>
+      </c>
+      <c r="P16" s="14">
+        <f t="shared" si="6"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="7"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="8"/>
+        <v>1406250</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" ref="T16:T25" si="15">T15+1</f>
+        <v>3</v>
+      </c>
+      <c r="U16" s="14">
+        <f t="shared" si="9"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V16" s="14">
+        <f t="shared" si="10"/>
+        <v>4383.333333333333</v>
+      </c>
+      <c r="W16" s="14">
+        <f t="shared" si="11"/>
+        <v>171050</v>
+      </c>
+      <c r="X16" s="14">
+        <f t="shared" si="12"/>
+        <v>1499999.9999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <f>B16+1</f>
+        <v>4</v>
+      </c>
+      <c r="C17" s="14">
+        <f>IFERROR(F16/($D$5+1-B17),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="0"/>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E17" s="14">
+        <f>D17+C17</f>
+        <v>246265.58346748535</v>
+      </c>
+      <c r="F17" s="14">
+        <f>F16-C17</f>
+        <v>1497510.3889783239</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>73078.047354574694</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="2"/>
+        <v>1921.9526454253146</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="3"/>
+        <v>75000.000000000015</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="4"/>
+        <v>584624.37883659755</v>
+      </c>
+      <c r="N17" s="14">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="5"/>
+        <v>156250</v>
+      </c>
+      <c r="P17" s="14">
+        <f t="shared" si="6"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="7"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" si="8"/>
+        <v>1250000</v>
+      </c>
+      <c r="T17" s="14">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="U17" s="14">
+        <f t="shared" si="9"/>
+        <v>166666.66666666663</v>
+      </c>
+      <c r="V17" s="14">
+        <f t="shared" si="10"/>
+        <v>4383.3333333333321</v>
+      </c>
+      <c r="W17" s="14">
+        <f t="shared" si="11"/>
+        <v>171049.99999999997</v>
+      </c>
+      <c r="X17" s="14">
+        <f t="shared" si="12"/>
+        <v>1333333.333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <f>B17+1</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="14">
+        <f>IFERROR(F17/($D$5+1-B18),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="0"/>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E18" s="14">
+        <f>D18+C18</f>
+        <v>246265.58346748535</v>
+      </c>
+      <c r="F18" s="14">
+        <f>F17-C18</f>
+        <v>1310321.5903560333</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>73078.047354574694</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
+        <v>1921.9526454253146</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="3"/>
+        <v>75000.000000000015</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="4"/>
+        <v>511546.33148202288</v>
+      </c>
+      <c r="N18" s="14">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="5"/>
+        <v>156250</v>
+      </c>
+      <c r="P18" s="14">
+        <f t="shared" si="6"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" si="7"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R18" s="14">
+        <f t="shared" si="8"/>
+        <v>1093750</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="U18" s="14">
+        <f t="shared" si="9"/>
+        <v>166666.66666666663</v>
+      </c>
+      <c r="V18" s="14">
+        <f t="shared" si="10"/>
+        <v>4383.3333333333321</v>
+      </c>
+      <c r="W18" s="14">
+        <f t="shared" si="11"/>
+        <v>171049.99999999997</v>
+      </c>
+      <c r="X18" s="14">
+        <f t="shared" si="12"/>
+        <v>1166666.6666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
+        <f>B18+1</f>
+        <v>6</v>
+      </c>
+      <c r="C19" s="14">
+        <f>IFERROR(F18/($D$5+1-B19),0)</f>
+        <v>187188.79862229046</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="0"/>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E19" s="14">
+        <f>D19+C19</f>
+        <v>246265.58346748532</v>
+      </c>
+      <c r="F19" s="14">
+        <f>F18-C19</f>
+        <v>1123132.7917337429</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="14">
+        <f>IFERROR(L18/($J$5+1-H19),0)</f>
+        <v>73078.047354574694</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="2"/>
+        <v>1921.9526454253146</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="3"/>
+        <v>75000.000000000015</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="4"/>
+        <v>438468.28412744822</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="5"/>
+        <v>156250</v>
+      </c>
+      <c r="P19" s="14">
+        <f t="shared" si="6"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="7"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R19" s="14">
+        <f t="shared" si="8"/>
+        <v>937500</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="U19" s="14">
+        <f t="shared" si="9"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="10"/>
+        <v>4383.333333333333</v>
+      </c>
+      <c r="W19" s="14">
+        <f t="shared" si="11"/>
+        <v>171050</v>
+      </c>
+      <c r="X19" s="14">
+        <f t="shared" si="12"/>
+        <v>999999.99999999988</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <f>B19+1</f>
+        <v>7</v>
+      </c>
+      <c r="C20" s="14">
+        <f>IFERROR(F19/($D$5+1-B20),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="0"/>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E20" s="14">
+        <f>D20+C20</f>
+        <v>246265.58346748535</v>
+      </c>
+      <c r="F20" s="14">
+        <f>F19-C20</f>
+        <v>935943.99311145244</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>73078.047354574708</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="2"/>
+        <v>1921.9526454253148</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="3"/>
+        <v>75000.000000000029</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="4"/>
+        <v>365390.2367728735</v>
+      </c>
+      <c r="N20" s="14">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="5"/>
+        <v>156250</v>
+      </c>
+      <c r="P20" s="14">
+        <f t="shared" si="6"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" si="7"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R20" s="14">
+        <f t="shared" si="8"/>
+        <v>781250</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="U20" s="14">
+        <f t="shared" si="9"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V20" s="14">
+        <f t="shared" si="10"/>
+        <v>4383.333333333333</v>
+      </c>
+      <c r="W20" s="14">
+        <f t="shared" si="11"/>
+        <v>171050</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="12"/>
+        <v>833333.33333333326</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <f>B20+1</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="14">
+        <f>IFERROR(F20/($D$5+1-B21),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="0"/>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E21" s="14">
+        <f>D21+C21</f>
+        <v>246265.58346748535</v>
+      </c>
+      <c r="F21" s="14">
+        <f>F20-C21</f>
+        <v>748755.19448916195</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>73078.047354574694</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="2"/>
+        <v>1921.9526454253146</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="3"/>
+        <v>75000.000000000015</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="4"/>
+        <v>292312.18941829877</v>
+      </c>
+      <c r="N21" s="14">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="5"/>
+        <v>156250</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" si="6"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="7"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R21" s="14">
+        <f t="shared" si="8"/>
+        <v>625000</v>
+      </c>
+      <c r="T21" s="14">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="U21" s="14">
+        <f t="shared" si="9"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V21" s="14">
+        <f t="shared" si="10"/>
+        <v>4383.333333333333</v>
+      </c>
+      <c r="W21" s="14">
+        <f t="shared" si="11"/>
+        <v>171050</v>
+      </c>
+      <c r="X21" s="14">
+        <f t="shared" si="12"/>
+        <v>666666.66666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
+        <f>B21+1</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="14">
+        <f>IFERROR(F21/($D$5+1-B22),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="0"/>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E22" s="14">
+        <f>D22+C22</f>
+        <v>246265.58346748535</v>
+      </c>
+      <c r="F22" s="14">
+        <f>F21-C22</f>
+        <v>561566.39586687146</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>73078.047354574694</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="2"/>
+        <v>1921.9526454253146</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="3"/>
+        <v>75000.000000000015</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="4"/>
+        <v>219234.14206372408</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="5"/>
+        <v>156250</v>
+      </c>
+      <c r="P22" s="14">
+        <f t="shared" si="6"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="7"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="8"/>
+        <v>468750</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="U22" s="14">
+        <f t="shared" si="9"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V22" s="14">
+        <f t="shared" si="10"/>
+        <v>4383.333333333333</v>
+      </c>
+      <c r="W22" s="14">
+        <f t="shared" si="11"/>
+        <v>171050</v>
+      </c>
+      <c r="X22" s="14">
+        <f t="shared" si="12"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <f>B22+1</f>
+        <v>10</v>
+      </c>
+      <c r="C23" s="14">
+        <f>IFERROR(F22/($D$5+1-B23),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="0"/>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E23" s="14">
+        <f>D23+C23</f>
+        <v>246265.58346748535</v>
+      </c>
+      <c r="F23" s="14">
+        <f>F22-C23</f>
+        <v>374377.59724458097</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>73078.047354574694</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="2"/>
+        <v>1921.9526454253146</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="3"/>
+        <v>75000.000000000015</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="4"/>
+        <v>146156.09470914939</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="5"/>
+        <v>156250</v>
+      </c>
+      <c r="P23" s="14">
+        <f t="shared" si="6"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="7"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="8"/>
+        <v>312500</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="U23" s="14">
+        <f t="shared" si="9"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="V23" s="14">
+        <f t="shared" si="10"/>
+        <v>4383.333333333333</v>
+      </c>
+      <c r="W23" s="14">
+        <f t="shared" si="11"/>
+        <v>171050</v>
+      </c>
+      <c r="X23" s="14">
+        <f t="shared" si="12"/>
+        <v>333333.33333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
+        <f>B23+1</f>
+        <v>11</v>
+      </c>
+      <c r="C24" s="14">
+        <f>IFERROR(F23/($D$5+1-B24),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="0"/>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E24" s="14">
+        <f>D24+C24</f>
+        <v>246265.58346748535</v>
+      </c>
+      <c r="F24" s="14">
+        <f>F23-C24</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>73078.047354574694</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="2"/>
+        <v>1921.9526454253146</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="3"/>
+        <v>75000.000000000015</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="4"/>
+        <v>73078.047354574694</v>
+      </c>
+      <c r="N24" s="14">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="O24" s="14">
+        <f t="shared" si="5"/>
+        <v>156250</v>
+      </c>
+      <c r="P24" s="14">
+        <f t="shared" si="6"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" si="7"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" si="8"/>
+        <v>156250</v>
+      </c>
+      <c r="T24" s="14">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="U24" s="14">
+        <f t="shared" si="9"/>
+        <v>166666.66666666669</v>
+      </c>
+      <c r="V24" s="14">
+        <f t="shared" si="10"/>
+        <v>4383.3333333333339</v>
+      </c>
+      <c r="W24" s="14">
+        <f t="shared" si="11"/>
+        <v>171050.00000000003</v>
+      </c>
+      <c r="X24" s="14">
+        <f t="shared" si="12"/>
+        <v>166666.66666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
+        <f>B24+1</f>
+        <v>12</v>
+      </c>
+      <c r="C25" s="14">
+        <f>IFERROR(F24/($D$5+1-B25),0)</f>
+        <v>187188.79862229049</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="0"/>
+        <v>59076.784845194867</v>
+      </c>
+      <c r="E25" s="14">
+        <f>D25+C25</f>
+        <v>246265.58346748535</v>
+      </c>
+      <c r="F25" s="14">
+        <f>F24-C25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>73078.047354574694</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="2"/>
+        <v>1921.9526454253146</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="3"/>
+        <v>75000.000000000015</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="5"/>
+        <v>156250</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" si="6"/>
+        <v>4109.375</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="7"/>
+        <v>160359.375</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="14">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="U25" s="14">
+        <f t="shared" si="9"/>
+        <v>166666.66666666669</v>
+      </c>
+      <c r="V25" s="14">
+        <f t="shared" si="10"/>
+        <v>4383.3333333333339</v>
+      </c>
+      <c r="W25" s="14">
+        <f t="shared" si="11"/>
+        <v>171050.00000000003</v>
+      </c>
+      <c r="X25" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>